--- a/統計学.xlsx
+++ b/統計学.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuusaku.hayashi\project\hysr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D73AD-27A2-409E-80CA-569F47925F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875EBF12-015A-40F4-ADFF-FDFB7BD0E163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="6" r:id="rId1"/>
@@ -18,18 +18,27 @@
     <sheet name="決定係数" sheetId="2" r:id="rId3"/>
     <sheet name="全確率の公式" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="超幾何分布" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>(xa, mY)</t>
     <phoneticPr fontId="1"/>
@@ -371,6 +380,319 @@
     </rPh>
     <rPh sb="18" eb="21">
       <t>イトテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標本の成功数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標本数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母集団の成功数</t>
+    <rPh sb="0" eb="3">
+      <t>ボシュウダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母集団の大きさ</t>
+    <rPh sb="0" eb="3">
+      <t>ボシュウダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母集団N</t>
+    <rPh sb="0" eb="3">
+      <t>ボシュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超幾何分布</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態Aを持つ個体数k個</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コタイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽出数n個</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N個の母集団</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の中に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状態Aを持つ要素がK個存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>する場合に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n個の非復元抽出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を行った時、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状態Aを持つ個体がk個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>含まれる確率</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ボシュウダン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>フクゲン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コタイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※超幾何分布の期待値はn(K/N)で計算可能</t>
+    <rPh sb="1" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -379,7 +701,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.000000000%"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +747,59 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -474,7 +852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -721,6 +1099,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -734,7 +1193,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -814,6 +1273,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{67DB1B3D-3D7B-4D11-8D3A-48244827A2D4}"/>
@@ -833,6 +1305,1138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>超幾何分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>超幾何分布!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.4696838026802162E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8348112393011491E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1211337254607562E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4696422994292637E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3076761316955857E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9941722309829836E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5877593847438942E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7402092270484774E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11694627104694073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13594743004275528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13898526767704494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12619444772828853</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10258479273971358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5164787111017733E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9922979435178282E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0202892098370425E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6713840028395127E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.491097648524468E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9727772141187811E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7166604966091228E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.867688730641772E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5493421423413576E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.798078030497887E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8278042547175868E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.4779790787927615E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3742451955930567E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2186297379451063E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5250667940788888E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5054696970524615E-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5589014223700343E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5302980751071356E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9107800815282656E-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2051622476547426E-11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.7557460195554163E-12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3861103075815938E-12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.066003934927462E-13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9003411167824933E-14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8360286784658221E-15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7811825853632912E-16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6168411289804244E-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.2203172145642383E-18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.494342383466614E-19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.3926042972647932E-20</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.9325004430464092E-21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.1902988850327588E-22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2805462993985403E-23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.32733388726505E-24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4372643410447403E-25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6819662770230498E-26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0932517999736125E-27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6907010158385149E-29</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8540016450303025E-30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0886281034935327E-31</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0644338849452939E-32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0987389449305351E-34</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2942969925513589E-35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.6919880881107569E-37</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8411613213333366E-38</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4271978303885642E-39</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.96749664135536E-41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6182871810307209E-42</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9299508570841724E-44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4030490333105947E-45</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.72639335669301E-47</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.2256808906844419E-49</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1265420069945768E-50</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5577261504798497E-52</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.0701017919998652E-54</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6734448447221738E-55</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.8578701505902486E-57</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.50970971217953E-59</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.5631841997405693E-61</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.7914722094511613E-63</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0815349702976235E-64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2190596099742504E-66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2557474991887378E-68</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.178866538982463E-70</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0055341060194556E-72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7671798096533188E-75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.4136821587711785E-77</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.3912412386619798E-79</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9008933387491725E-81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.4881712196292503E-84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1945823727432947E-86</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6325068758387031E-88</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.5556232663970589E-91</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6405260577186745E-93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.166739329431051E-96</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.0112989695159892E-99</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6400539068138969E-101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.4774846782083489E-104</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.0555674920245768E-107</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.0159505611958273E-110</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.3241801336143413E-113</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.3551909484875904E-116</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.7379446216468944E-120</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6676968882669761E-123</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.0667115140128081E-127</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1362669453788456E-131</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.409542340144005E-135</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.5661581557156247E-140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9088-4B19-B246-44CAF83F4D80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="311610440"/>
+        <c:axId val="311611096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="311610440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311611096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311611096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311610440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2017,6 +3621,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D305FF-37B1-4FAD-B28D-91FB378E2AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2287,7 +3934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0434A7-9D94-470F-9FF2-70D27EB81E88}">
   <dimension ref="D5:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3042,4 +4689,1042 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B15BB96-B58B-4850-BB1A-1D5BF3A69F44}">
+  <dimension ref="A1:E113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="79">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="80">
+        <v>100</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="80">
+        <v>100</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="81">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" thickBot="1">
+      <c r="E7" s="75"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="83">
+        <f>C4*(C5/C6)</f>
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1">
+      <c r="B9" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="85">
+        <f>C8*(1-(C5/C6))*((C6-C4)/(C6-1))</f>
+        <v>8.1081081081081088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A12, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.4696838026802162E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A13, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.8348112393011491E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A14, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.1211337254607562E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A15, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>4.4696422994292637E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A16, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.3076761316955857E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A17, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>2.9941722309829836E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A18, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>5.5877593847438942E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A19, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>8.7402092270484774E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A20, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>0.11694627104694073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A21, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>0.13594743004275528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A22, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>0.13898526767704494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A23, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>0.12619444772828853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A24, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>0.10258479273971358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A25, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>7.5164787111017733E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A26, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>4.9922979435178282E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A27, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>3.0202892098370425E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A28, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.6713840028395127E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A29, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>8.491097648524468E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A30, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>3.9727772141187811E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A31, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.7166604966091228E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A32, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>6.867688730641772E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A33, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>2.5493421423413576E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A34, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>8.798078030497887E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A35, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>2.8278042547175868E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A36, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>8.4779790787927615E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A37, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>2.3742451955930567E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>26</v>
+      </c>
+      <c r="B38" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A38, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>6.2186297379451063E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A39, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.5250667940788888E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A40, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>3.5054696970524615E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="B41" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A41, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>7.5589014223700343E-9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A42, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.5302980751071356E-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A43, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>2.9107800815282656E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44" s="73">
+        <f t="shared" ref="B44:B75" si="0">_xlfn.HYPGEOM.DIST($C$3+A44, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>5.2051622476547426E-11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>33</v>
+      </c>
+      <c r="B45" s="73">
+        <f t="shared" si="0"/>
+        <v>8.7557460195554163E-12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>34</v>
+      </c>
+      <c r="B46" s="73">
+        <f t="shared" si="0"/>
+        <v>1.3861103075815938E-12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>35</v>
+      </c>
+      <c r="B47" s="73">
+        <f t="shared" si="0"/>
+        <v>2.066003934927462E-13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>36</v>
+      </c>
+      <c r="B48" s="73">
+        <f t="shared" si="0"/>
+        <v>2.9003411167824933E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="B49" s="73">
+        <f t="shared" si="0"/>
+        <v>3.8360286784658221E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50" s="73">
+        <f t="shared" si="0"/>
+        <v>4.7811825853632912E-16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>39</v>
+      </c>
+      <c r="B51" s="73">
+        <f t="shared" si="0"/>
+        <v>5.6168411289804244E-17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52" s="73">
+        <f t="shared" si="0"/>
+        <v>6.2203172145642383E-18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>41</v>
+      </c>
+      <c r="B53" s="73">
+        <f t="shared" si="0"/>
+        <v>6.494342383466614E-19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>42</v>
+      </c>
+      <c r="B54" s="73">
+        <f t="shared" si="0"/>
+        <v>6.3926042972647932E-20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>43</v>
+      </c>
+      <c r="B55" s="73">
+        <f t="shared" si="0"/>
+        <v>5.9325004430464092E-21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>44</v>
+      </c>
+      <c r="B56" s="73">
+        <f t="shared" si="0"/>
+        <v>5.1902988850327588E-22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>45</v>
+      </c>
+      <c r="B57" s="73">
+        <f t="shared" si="0"/>
+        <v>4.2805462993985403E-23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>46</v>
+      </c>
+      <c r="B58" s="73">
+        <f t="shared" si="0"/>
+        <v>3.32733388726505E-24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>47</v>
+      </c>
+      <c r="B59" s="73">
+        <f t="shared" si="0"/>
+        <v>2.4372643410447403E-25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>48</v>
+      </c>
+      <c r="B60" s="73">
+        <f t="shared" si="0"/>
+        <v>1.6819662770230498E-26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>49</v>
+      </c>
+      <c r="B61" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0932517999736125E-27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62" s="73">
+        <f t="shared" si="0"/>
+        <v>6.6907010158385149E-29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>51</v>
+      </c>
+      <c r="B63" s="73">
+        <f t="shared" si="0"/>
+        <v>3.8540016450303025E-30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>52</v>
+      </c>
+      <c r="B64" s="73">
+        <f t="shared" si="0"/>
+        <v>2.0886281034935327E-31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>53</v>
+      </c>
+      <c r="B65" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0644338849452939E-32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>54</v>
+      </c>
+      <c r="B66" s="73">
+        <f t="shared" si="0"/>
+        <v>5.0987389449305351E-34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>55</v>
+      </c>
+      <c r="B67" s="73">
+        <f t="shared" si="0"/>
+        <v>2.2942969925513589E-35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>56</v>
+      </c>
+      <c r="B68" s="73">
+        <f t="shared" si="0"/>
+        <v>9.6919880881107569E-37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>57</v>
+      </c>
+      <c r="B69" s="73">
+        <f t="shared" si="0"/>
+        <v>3.8411613213333366E-38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>58</v>
+      </c>
+      <c r="B70" s="73">
+        <f t="shared" si="0"/>
+        <v>1.4271978303885642E-39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>59</v>
+      </c>
+      <c r="B71" s="73">
+        <f t="shared" si="0"/>
+        <v>4.96749664135536E-41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>60</v>
+      </c>
+      <c r="B72" s="73">
+        <f t="shared" si="0"/>
+        <v>1.6182871810307209E-42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>61</v>
+      </c>
+      <c r="B73" s="73">
+        <f t="shared" si="0"/>
+        <v>4.9299508570841724E-44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>62</v>
+      </c>
+      <c r="B74" s="73">
+        <f t="shared" si="0"/>
+        <v>1.4030490333105947E-45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>63</v>
+      </c>
+      <c r="B75" s="73">
+        <f t="shared" si="0"/>
+        <v>3.72639335669301E-47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>64</v>
+      </c>
+      <c r="B76" s="73">
+        <f t="shared" ref="B76:B107" si="1">_xlfn.HYPGEOM.DIST($C$3+A76, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>9.2256808906844419E-49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>65</v>
+      </c>
+      <c r="B77" s="73">
+        <f t="shared" si="1"/>
+        <v>2.1265420069945768E-50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>66</v>
+      </c>
+      <c r="B78" s="73">
+        <f t="shared" si="1"/>
+        <v>4.5577261504798497E-52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>67</v>
+      </c>
+      <c r="B79" s="73">
+        <f t="shared" si="1"/>
+        <v>9.0701017919998652E-54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>68</v>
+      </c>
+      <c r="B80" s="73">
+        <f t="shared" si="1"/>
+        <v>1.6734448447221738E-55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>69</v>
+      </c>
+      <c r="B81" s="73">
+        <f t="shared" si="1"/>
+        <v>2.8578701505902486E-57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>70</v>
+      </c>
+      <c r="B82" s="73">
+        <f t="shared" si="1"/>
+        <v>4.50970971217953E-59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>71</v>
+      </c>
+      <c r="B83" s="73">
+        <f t="shared" si="1"/>
+        <v>6.5631841997405693E-61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>72</v>
+      </c>
+      <c r="B84" s="73">
+        <f t="shared" si="1"/>
+        <v>8.7914722094511613E-63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>73</v>
+      </c>
+      <c r="B85" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0815349702976235E-64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>74</v>
+      </c>
+      <c r="B86" s="73">
+        <f t="shared" si="1"/>
+        <v>1.2190596099742504E-66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>75</v>
+      </c>
+      <c r="B87" s="73">
+        <f t="shared" si="1"/>
+        <v>1.2557474991887378E-68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>76</v>
+      </c>
+      <c r="B88" s="73">
+        <f t="shared" si="1"/>
+        <v>1.178866538982463E-70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>77</v>
+      </c>
+      <c r="B89" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0055341060194556E-72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>78</v>
+      </c>
+      <c r="B90" s="73">
+        <f t="shared" si="1"/>
+        <v>7.7671798096533188E-75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>79</v>
+      </c>
+      <c r="B91" s="73">
+        <f t="shared" si="1"/>
+        <v>5.4136821587711785E-77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>80</v>
+      </c>
+      <c r="B92" s="73">
+        <f t="shared" si="1"/>
+        <v>3.3912412386619798E-79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>81</v>
+      </c>
+      <c r="B93" s="73">
+        <f t="shared" si="1"/>
+        <v>1.9008933387491725E-81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>82</v>
+      </c>
+      <c r="B94" s="73">
+        <f t="shared" si="1"/>
+        <v>9.4881712196292503E-84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>83</v>
+      </c>
+      <c r="B95" s="73">
+        <f t="shared" si="1"/>
+        <v>4.1945823727432947E-86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>84</v>
+      </c>
+      <c r="B96" s="73">
+        <f t="shared" si="1"/>
+        <v>1.6325068758387031E-88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>85</v>
+      </c>
+      <c r="B97" s="73">
+        <f t="shared" si="1"/>
+        <v>5.5556232663970589E-91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>86</v>
+      </c>
+      <c r="B98" s="73">
+        <f t="shared" si="1"/>
+        <v>1.6405260577186745E-93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>87</v>
+      </c>
+      <c r="B99" s="73">
+        <f t="shared" si="1"/>
+        <v>4.166739329431051E-96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>88</v>
+      </c>
+      <c r="B100" s="73">
+        <f t="shared" si="1"/>
+        <v>9.0112989695159892E-99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>89</v>
+      </c>
+      <c r="B101" s="73">
+        <f t="shared" si="1"/>
+        <v>1.6400539068138969E-101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>90</v>
+      </c>
+      <c r="B102" s="73">
+        <f t="shared" si="1"/>
+        <v>2.4774846782083489E-104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>91</v>
+      </c>
+      <c r="B103" s="73">
+        <f t="shared" si="1"/>
+        <v>3.0555674920245768E-107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>92</v>
+      </c>
+      <c r="B104" s="73">
+        <f t="shared" si="1"/>
+        <v>3.0159505611958273E-110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>93</v>
+      </c>
+      <c r="B105" s="73">
+        <f t="shared" si="1"/>
+        <v>2.3241801336143413E-113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>94</v>
+      </c>
+      <c r="B106" s="73">
+        <f t="shared" si="1"/>
+        <v>1.3551909484875904E-116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>95</v>
+      </c>
+      <c r="B107" s="73">
+        <f t="shared" si="1"/>
+        <v>5.7379446216468944E-120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>96</v>
+      </c>
+      <c r="B108" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A108, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.6676968882669761E-123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>97</v>
+      </c>
+      <c r="B109" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A109, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>3.0667115140128081E-127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>98</v>
+      </c>
+      <c r="B110" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A110, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>3.1362669453788456E-131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>99</v>
+      </c>
+      <c r="B111" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A111, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.409542340144005E-135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>100</v>
+      </c>
+      <c r="B112" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$3+A112, $C$4, $C$5,$C$6, FALSE)</f>
+        <v>1.5661581557156247E-140</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="73"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/統計学.xlsx
+++ b/統計学.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuusaku.hayashi\project\hysr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875EBF12-015A-40F4-ADFF-FDFB7BD0E163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C16FE-A6FF-4F08-9FC5-3FF32B3E106F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="6" r:id="rId1"/>
@@ -19,26 +19,19 @@
     <sheet name="全確率の公式" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1 (2)" sheetId="5" r:id="rId5"/>
     <sheet name="超幾何分布" sheetId="7" r:id="rId6"/>
+    <sheet name="二項分布" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>(xa, mY)</t>
     <phoneticPr fontId="1"/>
@@ -696,13 +689,217 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>cdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試行数</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功確率</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功数</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標本中の成功数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確立変数</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試行数n</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抽出できる確率がp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n回復元抽出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を行った時、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成功する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>確率</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>np</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功する確率p(小数点数)</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>np(1-p)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000000000%"/>
+    <numFmt numFmtId="176" formatCode="0.000000000%"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1193,7 +1390,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1273,7 +1470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1286,6 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{67DB1B3D-3D7B-4D11-8D3A-48244827A2D4}"/>
@@ -1341,9 +1539,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>超幾何分布</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>pdf</a:t>
             </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1398,7 +1597,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>超幾何分布!$B$12:$B$112</c:f>
+              <c:f>超幾何分布!$B$15:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000%</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1710,7 +1909,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9088-4B19-B246-44CAF83F4D80}"/>
+              <c16:uniqueId val="{00000000-673E-4C29-843F-7BC012A28343}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1896,6 +2095,1748 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>cdf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>超幾何分布!$C$15:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.4696838026802162E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9817796195691707E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3193116874176732E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.788953986846937E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8865715303802794E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8807437613632626E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10468503146107157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19208712373155634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30903339477849706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44498082482125234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58396609249829723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71016054022658581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81274533296629936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88791012007731707</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93783309951249538</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96803599161086584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.984749831639261</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99324092928778551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99721370650190433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99893036699851345</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99961713587157763</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9998720700858118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99996005086611683</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99998832890866396</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99999680688774273</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99999918113293829</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999980299591207</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99999995550259146</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99999999055728839</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99999999811618978</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99999999964648789</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99999999993756594</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99999999998961753</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9999999999983733</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99999999999975941</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99999999999996603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99999999999999889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999999999999944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6432-4DDF-B2FB-C14EEAB97DF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="476019392"/>
+        <c:axId val="476029232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="476019392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476029232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476029232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476019392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>pdf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>二項分布!$B$15:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.6561398887587476E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9512665430652773E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6231965986859046E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8916024693043889E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5874595542292376E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3865803823557049E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9578728948850357E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.889524636812593E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11482302655882935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1304162770791642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13186534682448822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11987758802226202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8788012351678889E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4302094760237067E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1303827334449464E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2682438153797441E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9291716965783169E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0591530883175089E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4265250821205688E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6021933142332623E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1709869914049654E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9565586937776347E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9776168525678398E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4518895893861071E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6564606406607781E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9729337195652582E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8759402947324655E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.7580074819013169E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5370418499158747E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9987361376989486E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8404083917652675E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6175120940347336E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1062789391958223E-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5328945409197227E-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.545880203974561E-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1619939474994299E-11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3311606971439327E-12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4803088473636733E-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.2532005083015306E-14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4578302892156667E-14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4702124345043022E-15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0166055845598617E-16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2693050129372666E-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3958576421283492E-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3524340545487657E-18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8700322729563154E-19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4843423916086421E-20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1715009254578644E-21</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8909617835478817E-22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.587982148401027E-23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.1997131015211782E-24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6641754918532132E-25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9304401517266333E-26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9677385174607181E-27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.7712697596842454E-28</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.363200180716623E-29</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7885715899256424E-30</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1071569192343688E-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3832901825110975E-32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6760487319297037E-33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0318147779466289E-34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4803750658991942E-35</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0346707449832798E-36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.9343012891297561E-38</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.4543254808645239E-39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7411233728397261E-40</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6151400345015282E-41</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.1069255676700303E-43</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9105971198221842E-44</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5304204160113902E-45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.245127506291343E-46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8456690436213078E-48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.6161173189045807E-49</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.114935843673196E-50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.5200101770534302E-52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7410409570873E-53</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.3634537905236743E-55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2037935205276515E-56</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.2204061213869564E-58</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2341622316527636E-59</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.5163065089875096E-61</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7877384112448034E-62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6025785655353375E-64</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1090550760326037E-65</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.4939069170045814E-67</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2160144669377636E-69</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.010855516848429E-70</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8074045001120615E-72</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.9666993057394377E-74</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.4444933419318628E-76</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.0357316989197273E-78</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.3696357740169999E-80</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.0104736674095456E-82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.6563667072015817E-84</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.3350551950838622E-86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.445652768479891E-88</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5727157224999704E-90</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1787930000000177E-92</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.0094999999999102E-95</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.999999999999935E-98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0000000000000174E-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61F9-4CD6-A127-2B654A377C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="311610440"/>
+        <c:axId val="311611096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="311610440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311611096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311611096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311610440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>cdf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>二項分布!$C$15:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.6561398887587476E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2168805319411522E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9448846518800198E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8364871211844093E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3711082663476785E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7576886487033838E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11715561543588419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20605086180401011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32087388836283948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45129016544200368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58315551226649187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70303310028875388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80182111264043276</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87612320740066985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92742703473511934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96010947288891679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97940118985469993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98999272073787503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99541924581999564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99802143913422892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99919242612563386</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99968808199501158</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99988584368026834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99996036257616217</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99998692718256876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99999590011628836</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999877605658305</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9999996518573312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99999990556151619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99999997554887754</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99999999395296146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9999999985704735</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99999999967675246</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99999999993004196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99999999998550071</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99999999999712064</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99999999999945177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99999999999989986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99999999999998235</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99999999999999689</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFE8-4EE5-8B7F-C67D080F1333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="476019392"/>
+        <c:axId val="476029232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="476019392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476029232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476029232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476019392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1936,7 +3877,1636 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3628,25 +7198,652 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1439368" cy="346570"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="テキスト ボックス 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2275F35-DCB5-4D6D-8178-3D1477A6B0A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2143125" y="238125"/>
+              <a:ext cx="1439368" cy="346570"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐾</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∙</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐾</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="テキスト ボックス 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2275F35-DCB5-4D6D-8178-3D1477A6B0A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2143125" y="238125"/>
+              <a:ext cx="1439368" cy="346570"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> _𝐾 𝐶_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∙ _(𝑁−𝐾) 𝐶_(𝑛−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> _</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝐶_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛 )</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D305FF-37B1-4FAD-B28D-91FB378E2AF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1693251-8373-4C10-90FB-5381E4864FEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,6 +7858,612 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47FA6B5-3D6B-4865-B8EC-E0EBC4D4AB8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1550040" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421D556E-DEFC-4DF5-AD57-E899932C6F8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2066925" y="238125"/>
+              <a:ext cx="1550040" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421D556E-DEFC-4DF5-AD57-E899932C6F8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2066925" y="238125"/>
+              <a:ext cx="1550040" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> _</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝐶_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥 𝑝^𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(1−𝑝)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA6430E-B080-4B3C-940D-D9AACFA428F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A2C150-7A57-41B3-8137-E39883AF1EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4693,16 +9496,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B15BB96-B58B-4850-BB1A-1D5BF3A69F44}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4714,1012 +9518,2890 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="74"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="79">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="80">
-        <v>100</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="80">
+        <v>100</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C7" s="80">
         <v>100</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E7" s="78" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" thickBot="1">
+    <row r="8" spans="1:5" ht="19.5" thickBot="1">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="81">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1">
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="83">
+        <f>C6*(C7/C8)</f>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="75"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" thickBot="1">
+      <c r="B11" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="85">
+        <f>C10*(1-(C7/C8))*((C8-C6)/(C8-1))</f>
+        <v>8.1081081081081088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="86"/>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$5+A15, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>1.4696838026802162E-5</v>
+      </c>
+      <c r="C15" s="73">
+        <f t="shared" ref="C15:C46" si="0">C14+B15</f>
+        <v>1.4696838026802162E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="73">
+        <f t="shared" ref="B16:B46" si="1">_xlfn.HYPGEOM.DIST($C$5+A16, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>1.8348112393011491E-4</v>
+      </c>
+      <c r="C16" s="73">
+        <f t="shared" si="0"/>
+        <v>1.9817796195691707E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="73">
+        <f t="shared" si="1"/>
+        <v>1.1211337254607562E-3</v>
+      </c>
+      <c r="C17" s="73">
+        <f t="shared" si="0"/>
+        <v>1.3193116874176732E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="73">
+        <f t="shared" si="1"/>
+        <v>4.4696422994292637E-3</v>
+      </c>
+      <c r="C18" s="73">
+        <f t="shared" si="0"/>
+        <v>5.788953986846937E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="73">
+        <f t="shared" si="1"/>
+        <v>1.3076761316955857E-2</v>
+      </c>
+      <c r="C19" s="73">
+        <f t="shared" si="0"/>
+        <v>1.8865715303802794E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="73">
+        <f t="shared" si="1"/>
+        <v>2.9941722309829836E-2</v>
+      </c>
+      <c r="C20" s="73">
+        <f t="shared" si="0"/>
+        <v>4.8807437613632626E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="73">
+        <f t="shared" si="1"/>
+        <v>5.5877593847438942E-2</v>
+      </c>
+      <c r="C21" s="73">
+        <f t="shared" si="0"/>
+        <v>0.10468503146107157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="73">
+        <f t="shared" si="1"/>
+        <v>8.7402092270484774E-2</v>
+      </c>
+      <c r="C22" s="73">
+        <f t="shared" si="0"/>
+        <v>0.19208712373155634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="73">
+        <f t="shared" si="1"/>
+        <v>0.11694627104694073</v>
+      </c>
+      <c r="C23" s="73">
+        <f t="shared" si="0"/>
+        <v>0.30903339477849706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" s="73">
+        <f t="shared" si="1"/>
+        <v>0.13594743004275528</v>
+      </c>
+      <c r="C24" s="73">
+        <f t="shared" si="0"/>
+        <v>0.44498082482125234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="73">
+        <f t="shared" si="1"/>
+        <v>0.13898526767704494</v>
+      </c>
+      <c r="C25" s="73">
+        <f t="shared" si="0"/>
+        <v>0.58396609249829723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="73">
+        <f t="shared" si="1"/>
+        <v>0.12619444772828853</v>
+      </c>
+      <c r="C26" s="73">
+        <f t="shared" si="0"/>
+        <v>0.71016054022658581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="73">
+        <f t="shared" si="1"/>
+        <v>0.10258479273971358</v>
+      </c>
+      <c r="C27" s="73">
+        <f t="shared" si="0"/>
+        <v>0.81274533296629936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="73">
+        <f t="shared" si="1"/>
+        <v>7.5164787111017733E-2</v>
+      </c>
+      <c r="C28" s="73">
+        <f t="shared" si="0"/>
+        <v>0.88791012007731707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="73">
+        <f t="shared" si="1"/>
+        <v>4.9922979435178282E-2</v>
+      </c>
+      <c r="C29" s="73">
+        <f t="shared" si="0"/>
+        <v>0.93783309951249538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="73">
+        <f t="shared" si="1"/>
+        <v>3.0202892098370425E-2</v>
+      </c>
+      <c r="C30" s="73">
+        <f t="shared" si="0"/>
+        <v>0.96803599161086584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" s="73">
+        <f t="shared" si="1"/>
+        <v>1.6713840028395127E-2</v>
+      </c>
+      <c r="C31" s="73">
+        <f t="shared" si="0"/>
+        <v>0.984749831639261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" s="73">
+        <f t="shared" si="1"/>
+        <v>8.491097648524468E-3</v>
+      </c>
+      <c r="C32" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99324092928778551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33" s="73">
+        <f t="shared" si="1"/>
+        <v>3.9727772141187811E-3</v>
+      </c>
+      <c r="C33" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99721370650190433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34" s="73">
+        <f t="shared" si="1"/>
+        <v>1.7166604966091228E-3</v>
+      </c>
+      <c r="C34" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99893036699851345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="73">
+        <f t="shared" si="1"/>
+        <v>6.867688730641772E-4</v>
+      </c>
+      <c r="C35" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99961713587157763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36" s="73">
+        <f t="shared" si="1"/>
+        <v>2.5493421423413576E-4</v>
+      </c>
+      <c r="C36" s="73">
+        <f t="shared" si="0"/>
+        <v>0.9998720700858118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37" s="73">
+        <f t="shared" si="1"/>
+        <v>8.798078030497887E-5</v>
+      </c>
+      <c r="C37" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99996005086611683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" s="73">
+        <f t="shared" si="1"/>
+        <v>2.8278042547175868E-5</v>
+      </c>
+      <c r="C38" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99998832890866396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" s="73">
+        <f t="shared" si="1"/>
+        <v>8.4779790787927615E-6</v>
+      </c>
+      <c r="C39" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999680688774273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40" s="73">
+        <f t="shared" si="1"/>
+        <v>2.3742451955930567E-6</v>
+      </c>
+      <c r="C40" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999918113293829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>26</v>
+      </c>
+      <c r="B41" s="73">
+        <f t="shared" si="1"/>
+        <v>6.2186297379451063E-7</v>
+      </c>
+      <c r="C41" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999980299591207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" s="73">
+        <f t="shared" si="1"/>
+        <v>1.5250667940788888E-7</v>
+      </c>
+      <c r="C42" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999995550259146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>28</v>
+      </c>
+      <c r="B43" s="73">
+        <f t="shared" si="1"/>
+        <v>3.5054696970524615E-8</v>
+      </c>
+      <c r="C43" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999999055728839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>29</v>
+      </c>
+      <c r="B44" s="73">
+        <f t="shared" si="1"/>
+        <v>7.5589014223700343E-9</v>
+      </c>
+      <c r="C44" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999999811618978</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45" s="73">
+        <f t="shared" si="1"/>
+        <v>1.5302980751071356E-9</v>
+      </c>
+      <c r="C45" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999999964648789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>31</v>
+      </c>
+      <c r="B46" s="73">
+        <f t="shared" si="1"/>
+        <v>2.9107800815282656E-10</v>
+      </c>
+      <c r="C46" s="73">
+        <f t="shared" si="0"/>
+        <v>0.99999999993756594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47" s="73">
+        <f t="shared" ref="B47:B78" si="2">_xlfn.HYPGEOM.DIST($C$5+A47, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>5.2051622476547426E-11</v>
+      </c>
+      <c r="C47" s="73">
+        <f t="shared" ref="C47:C78" si="3">C46+B47</f>
+        <v>0.99999999998961753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>33</v>
+      </c>
+      <c r="B48" s="73">
+        <f t="shared" si="2"/>
+        <v>8.7557460195554163E-12</v>
+      </c>
+      <c r="C48" s="73">
+        <f t="shared" si="3"/>
+        <v>0.9999999999983733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" s="73">
+        <f t="shared" si="2"/>
+        <v>1.3861103075815938E-12</v>
+      </c>
+      <c r="C49" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999975941</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>35</v>
+      </c>
+      <c r="B50" s="73">
+        <f t="shared" si="2"/>
+        <v>2.066003934927462E-13</v>
+      </c>
+      <c r="C50" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999996603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>36</v>
+      </c>
+      <c r="B51" s="73">
+        <f t="shared" si="2"/>
+        <v>2.9003411167824933E-14</v>
+      </c>
+      <c r="C51" s="73">
+        <f t="shared" si="3"/>
+        <v>0.999999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>37</v>
+      </c>
+      <c r="B52" s="73">
+        <f t="shared" si="2"/>
+        <v>3.8360286784658221E-15</v>
+      </c>
+      <c r="C52" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53" s="73">
+        <f t="shared" si="2"/>
+        <v>4.7811825853632912E-16</v>
+      </c>
+      <c r="C53" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>39</v>
+      </c>
+      <c r="B54" s="73">
+        <f t="shared" si="2"/>
+        <v>5.6168411289804244E-17</v>
+      </c>
+      <c r="C54" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55" s="73">
+        <f t="shared" si="2"/>
+        <v>6.2203172145642383E-18</v>
+      </c>
+      <c r="C55" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" s="73">
+        <f t="shared" si="2"/>
+        <v>6.494342383466614E-19</v>
+      </c>
+      <c r="C56" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" s="73">
+        <f t="shared" si="2"/>
+        <v>6.3926042972647932E-20</v>
+      </c>
+      <c r="C57" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>43</v>
+      </c>
+      <c r="B58" s="73">
+        <f t="shared" si="2"/>
+        <v>5.9325004430464092E-21</v>
+      </c>
+      <c r="C58" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>44</v>
+      </c>
+      <c r="B59" s="73">
+        <f t="shared" si="2"/>
+        <v>5.1902988850327588E-22</v>
+      </c>
+      <c r="C59" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60" s="73">
+        <f t="shared" si="2"/>
+        <v>4.2805462993985403E-23</v>
+      </c>
+      <c r="C60" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>46</v>
+      </c>
+      <c r="B61" s="73">
+        <f t="shared" si="2"/>
+        <v>3.32733388726505E-24</v>
+      </c>
+      <c r="C61" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>47</v>
+      </c>
+      <c r="B62" s="73">
+        <f t="shared" si="2"/>
+        <v>2.4372643410447403E-25</v>
+      </c>
+      <c r="C62" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>48</v>
+      </c>
+      <c r="B63" s="73">
+        <f t="shared" si="2"/>
+        <v>1.6819662770230498E-26</v>
+      </c>
+      <c r="C63" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>49</v>
+      </c>
+      <c r="B64" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0932517999736125E-27</v>
+      </c>
+      <c r="C64" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>50</v>
+      </c>
+      <c r="B65" s="73">
+        <f t="shared" si="2"/>
+        <v>6.6907010158385149E-29</v>
+      </c>
+      <c r="C65" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>51</v>
+      </c>
+      <c r="B66" s="73">
+        <f t="shared" si="2"/>
+        <v>3.8540016450303025E-30</v>
+      </c>
+      <c r="C66" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>52</v>
+      </c>
+      <c r="B67" s="73">
+        <f t="shared" si="2"/>
+        <v>2.0886281034935327E-31</v>
+      </c>
+      <c r="C67" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>53</v>
+      </c>
+      <c r="B68" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0644338849452939E-32</v>
+      </c>
+      <c r="C68" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>54</v>
+      </c>
+      <c r="B69" s="73">
+        <f t="shared" si="2"/>
+        <v>5.0987389449305351E-34</v>
+      </c>
+      <c r="C69" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>55</v>
+      </c>
+      <c r="B70" s="73">
+        <f t="shared" si="2"/>
+        <v>2.2942969925513589E-35</v>
+      </c>
+      <c r="C70" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>56</v>
+      </c>
+      <c r="B71" s="73">
+        <f t="shared" si="2"/>
+        <v>9.6919880881107569E-37</v>
+      </c>
+      <c r="C71" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>57</v>
+      </c>
+      <c r="B72" s="73">
+        <f t="shared" si="2"/>
+        <v>3.8411613213333366E-38</v>
+      </c>
+      <c r="C72" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>58</v>
+      </c>
+      <c r="B73" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4271978303885642E-39</v>
+      </c>
+      <c r="C73" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>59</v>
+      </c>
+      <c r="B74" s="73">
+        <f t="shared" si="2"/>
+        <v>4.96749664135536E-41</v>
+      </c>
+      <c r="C74" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="B75" s="73">
+        <f t="shared" si="2"/>
+        <v>1.6182871810307209E-42</v>
+      </c>
+      <c r="C75" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>61</v>
+      </c>
+      <c r="B76" s="73">
+        <f t="shared" si="2"/>
+        <v>4.9299508570841724E-44</v>
+      </c>
+      <c r="C76" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>62</v>
+      </c>
+      <c r="B77" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4030490333105947E-45</v>
+      </c>
+      <c r="C77" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>63</v>
+      </c>
+      <c r="B78" s="73">
+        <f t="shared" si="2"/>
+        <v>3.72639335669301E-47</v>
+      </c>
+      <c r="C78" s="73">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>64</v>
+      </c>
+      <c r="B79" s="73">
+        <f t="shared" ref="B79:B110" si="4">_xlfn.HYPGEOM.DIST($C$5+A79, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>9.2256808906844419E-49</v>
+      </c>
+      <c r="C79" s="73">
+        <f t="shared" ref="C79:C110" si="5">C78+B79</f>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>65</v>
+      </c>
+      <c r="B80" s="73">
+        <f t="shared" si="4"/>
+        <v>2.1265420069945768E-50</v>
+      </c>
+      <c r="C80" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>66</v>
+      </c>
+      <c r="B81" s="73">
+        <f t="shared" si="4"/>
+        <v>4.5577261504798497E-52</v>
+      </c>
+      <c r="C81" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>67</v>
+      </c>
+      <c r="B82" s="73">
+        <f t="shared" si="4"/>
+        <v>9.0701017919998652E-54</v>
+      </c>
+      <c r="C82" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>68</v>
+      </c>
+      <c r="B83" s="73">
+        <f t="shared" si="4"/>
+        <v>1.6734448447221738E-55</v>
+      </c>
+      <c r="C83" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>69</v>
+      </c>
+      <c r="B84" s="73">
+        <f t="shared" si="4"/>
+        <v>2.8578701505902486E-57</v>
+      </c>
+      <c r="C84" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>70</v>
+      </c>
+      <c r="B85" s="73">
+        <f t="shared" si="4"/>
+        <v>4.50970971217953E-59</v>
+      </c>
+      <c r="C85" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>71</v>
+      </c>
+      <c r="B86" s="73">
+        <f t="shared" si="4"/>
+        <v>6.5631841997405693E-61</v>
+      </c>
+      <c r="C86" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>72</v>
+      </c>
+      <c r="B87" s="73">
+        <f t="shared" si="4"/>
+        <v>8.7914722094511613E-63</v>
+      </c>
+      <c r="C87" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>73</v>
+      </c>
+      <c r="B88" s="73">
+        <f t="shared" si="4"/>
+        <v>1.0815349702976235E-64</v>
+      </c>
+      <c r="C88" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>74</v>
+      </c>
+      <c r="B89" s="73">
+        <f t="shared" si="4"/>
+        <v>1.2190596099742504E-66</v>
+      </c>
+      <c r="C89" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>75</v>
+      </c>
+      <c r="B90" s="73">
+        <f t="shared" si="4"/>
+        <v>1.2557474991887378E-68</v>
+      </c>
+      <c r="C90" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>76</v>
+      </c>
+      <c r="B91" s="73">
+        <f t="shared" si="4"/>
+        <v>1.178866538982463E-70</v>
+      </c>
+      <c r="C91" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>77</v>
+      </c>
+      <c r="B92" s="73">
+        <f t="shared" si="4"/>
+        <v>1.0055341060194556E-72</v>
+      </c>
+      <c r="C92" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>78</v>
+      </c>
+      <c r="B93" s="73">
+        <f t="shared" si="4"/>
+        <v>7.7671798096533188E-75</v>
+      </c>
+      <c r="C93" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>79</v>
+      </c>
+      <c r="B94" s="73">
+        <f t="shared" si="4"/>
+        <v>5.4136821587711785E-77</v>
+      </c>
+      <c r="C94" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>80</v>
+      </c>
+      <c r="B95" s="73">
+        <f t="shared" si="4"/>
+        <v>3.3912412386619798E-79</v>
+      </c>
+      <c r="C95" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>81</v>
+      </c>
+      <c r="B96" s="73">
+        <f t="shared" si="4"/>
+        <v>1.9008933387491725E-81</v>
+      </c>
+      <c r="C96" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>82</v>
+      </c>
+      <c r="B97" s="73">
+        <f t="shared" si="4"/>
+        <v>9.4881712196292503E-84</v>
+      </c>
+      <c r="C97" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>83</v>
+      </c>
+      <c r="B98" s="73">
+        <f t="shared" si="4"/>
+        <v>4.1945823727432947E-86</v>
+      </c>
+      <c r="C98" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>84</v>
+      </c>
+      <c r="B99" s="73">
+        <f t="shared" si="4"/>
+        <v>1.6325068758387031E-88</v>
+      </c>
+      <c r="C99" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>85</v>
+      </c>
+      <c r="B100" s="73">
+        <f t="shared" si="4"/>
+        <v>5.5556232663970589E-91</v>
+      </c>
+      <c r="C100" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>86</v>
+      </c>
+      <c r="B101" s="73">
+        <f t="shared" si="4"/>
+        <v>1.6405260577186745E-93</v>
+      </c>
+      <c r="C101" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>87</v>
+      </c>
+      <c r="B102" s="73">
+        <f t="shared" si="4"/>
+        <v>4.166739329431051E-96</v>
+      </c>
+      <c r="C102" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>88</v>
+      </c>
+      <c r="B103" s="73">
+        <f t="shared" si="4"/>
+        <v>9.0112989695159892E-99</v>
+      </c>
+      <c r="C103" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>89</v>
+      </c>
+      <c r="B104" s="73">
+        <f t="shared" si="4"/>
+        <v>1.6400539068138969E-101</v>
+      </c>
+      <c r="C104" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>90</v>
+      </c>
+      <c r="B105" s="73">
+        <f t="shared" si="4"/>
+        <v>2.4774846782083489E-104</v>
+      </c>
+      <c r="C105" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>91</v>
+      </c>
+      <c r="B106" s="73">
+        <f t="shared" si="4"/>
+        <v>3.0555674920245768E-107</v>
+      </c>
+      <c r="C106" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>92</v>
+      </c>
+      <c r="B107" s="73">
+        <f t="shared" si="4"/>
+        <v>3.0159505611958273E-110</v>
+      </c>
+      <c r="C107" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>93</v>
+      </c>
+      <c r="B108" s="73">
+        <f t="shared" si="4"/>
+        <v>2.3241801336143413E-113</v>
+      </c>
+      <c r="C108" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>94</v>
+      </c>
+      <c r="B109" s="73">
+        <f t="shared" si="4"/>
+        <v>1.3551909484875904E-116</v>
+      </c>
+      <c r="C109" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>95</v>
+      </c>
+      <c r="B110" s="73">
+        <f t="shared" si="4"/>
+        <v>5.7379446216468944E-120</v>
+      </c>
+      <c r="C110" s="73">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>96</v>
+      </c>
+      <c r="B111" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$5+A111, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>1.6676968882669761E-123</v>
+      </c>
+      <c r="C111" s="73">
+        <f t="shared" ref="C111:C115" si="6">C110+B111</f>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>97</v>
+      </c>
+      <c r="B112" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$5+A112, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>3.0667115140128081E-127</v>
+      </c>
+      <c r="C112" s="73">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>98</v>
+      </c>
+      <c r="B113" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$5+A113, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>3.1362669453788456E-131</v>
+      </c>
+      <c r="C113" s="73">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>99</v>
+      </c>
+      <c r="B114" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$5+A114, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>1.409542340144005E-135</v>
+      </c>
+      <c r="C114" s="73">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>100</v>
+      </c>
+      <c r="B115" s="73">
+        <f>_xlfn.HYPGEOM.DIST($C$5+A115, $C$6, $C$7,$C$8, FALSE)</f>
+        <v>1.5661581557156247E-140</v>
+      </c>
+      <c r="C115" s="73">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="73"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46DA1E0-C638-44EA-BF89-BE1AEA9E17CE}">
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="74"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="81">
-        <v>1000</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="80">
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" thickBot="1">
-      <c r="E7" s="75"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="82" t="s">
+      <c r="E6" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C8" s="81"/>
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1">
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="83">
-        <f>C4*(C5/C6)</f>
+      <c r="C10" s="83">
+        <f>C6*C7</f>
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="75"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" thickBot="1">
-      <c r="B9" s="84" t="s">
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="75"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" thickBot="1">
+      <c r="B11" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="85">
-        <f>C8*(1-(C5/C6))*((C6-C4)/(C6-1))</f>
-        <v>8.1081081081081088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>53</v>
+      <c r="C11" s="85">
+        <f>C10*(1-C7)</f>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="86"/>
+      <c r="C14">
         <v>0</v>
-      </c>
-      <c r="B12" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A12, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.4696838026802162E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A13, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.8348112393011491E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A14, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.1211337254607562E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A15, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>4.4696422994292637E-3</v>
+        <f t="shared" ref="B15:B46" si="0">_xlfn.BINOM.DIST($C$5+A15,$C$6,$C$7,FALSE)</f>
+        <v>2.6561398887587476E-5</v>
+      </c>
+      <c r="C15" s="73">
+        <f t="shared" ref="C15:C78" si="1">C14+B15</f>
+        <v>2.6561398887587476E-5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="73">
+        <f t="shared" si="0"/>
+        <v>2.9512665430652773E-4</v>
+      </c>
+      <c r="C16" s="73">
+        <f t="shared" si="1"/>
+        <v>3.2168805319411522E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="73">
+        <f t="shared" si="0"/>
+        <v>1.6231965986859046E-3</v>
+      </c>
+      <c r="C17" s="73">
+        <f t="shared" si="1"/>
+        <v>1.9448846518800198E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="73">
+        <f t="shared" si="0"/>
+        <v>5.8916024693043889E-3</v>
+      </c>
+      <c r="C18" s="73">
+        <f t="shared" si="1"/>
+        <v>7.8364871211844093E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>4</v>
       </c>
-      <c r="B16" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A16, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.3076761316955857E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="B19" s="73">
+        <f t="shared" si="0"/>
+        <v>1.5874595542292376E-2</v>
+      </c>
+      <c r="C19" s="73">
+        <f t="shared" si="1"/>
+        <v>2.3711082663476785E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B17" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A17, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>2.9941722309829836E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="B20" s="73">
+        <f t="shared" si="0"/>
+        <v>3.3865803823557049E-2</v>
+      </c>
+      <c r="C20" s="73">
+        <f t="shared" si="1"/>
+        <v>5.7576886487033838E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="B18" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A18, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>5.5877593847438942E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="B21" s="73">
+        <f t="shared" si="0"/>
+        <v>5.9578728948850357E-2</v>
+      </c>
+      <c r="C21" s="73">
+        <f t="shared" si="1"/>
+        <v>0.11715561543588419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="B19" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A19, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>8.7402092270484774E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="B22" s="73">
+        <f t="shared" si="0"/>
+        <v>8.889524636812593E-2</v>
+      </c>
+      <c r="C22" s="73">
+        <f t="shared" si="1"/>
+        <v>0.20605086180401011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="B20" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A20, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>0.11694627104694073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="B23" s="73">
+        <f t="shared" si="0"/>
+        <v>0.11482302655882935</v>
+      </c>
+      <c r="C23" s="73">
+        <f t="shared" si="1"/>
+        <v>0.32087388836283948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>9</v>
       </c>
-      <c r="B21" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A21, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>0.13594743004275528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="B24" s="73">
+        <f t="shared" si="0"/>
+        <v>0.1304162770791642</v>
+      </c>
+      <c r="C24" s="73">
+        <f t="shared" si="1"/>
+        <v>0.45129016544200368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>10</v>
       </c>
-      <c r="B22" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A22, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>0.13898526767704494</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="B25" s="73">
+        <f t="shared" si="0"/>
+        <v>0.13186534682448822</v>
+      </c>
+      <c r="C25" s="73">
+        <f t="shared" si="1"/>
+        <v>0.58315551226649187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>11</v>
       </c>
-      <c r="B23" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A23, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>0.12619444772828853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="B26" s="73">
+        <f t="shared" si="0"/>
+        <v>0.11987758802226202</v>
+      </c>
+      <c r="C26" s="73">
+        <f t="shared" si="1"/>
+        <v>0.70303310028875388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>12</v>
       </c>
-      <c r="B24" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A24, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>0.10258479273971358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="B27" s="73">
+        <f t="shared" si="0"/>
+        <v>9.8788012351678889E-2</v>
+      </c>
+      <c r="C27" s="73">
+        <f t="shared" si="1"/>
+        <v>0.80182111264043276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>13</v>
       </c>
-      <c r="B25" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A25, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>7.5164787111017733E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="B28" s="73">
+        <f t="shared" si="0"/>
+        <v>7.4302094760237067E-2</v>
+      </c>
+      <c r="C28" s="73">
+        <f t="shared" si="1"/>
+        <v>0.87612320740066985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>14</v>
       </c>
-      <c r="B26" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A26, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>4.9922979435178282E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+      <c r="B29" s="73">
+        <f t="shared" si="0"/>
+        <v>5.1303827334449464E-2</v>
+      </c>
+      <c r="C29" s="73">
+        <f t="shared" si="1"/>
+        <v>0.92742703473511934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>15</v>
       </c>
-      <c r="B27" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A27, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>3.0202892098370425E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="B30" s="73">
+        <f t="shared" si="0"/>
+        <v>3.2682438153797441E-2</v>
+      </c>
+      <c r="C30" s="73">
+        <f t="shared" si="1"/>
+        <v>0.96010947288891679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>16</v>
       </c>
-      <c r="B28" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A28, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.6713840028395127E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="B31" s="73">
+        <f t="shared" si="0"/>
+        <v>1.9291716965783169E-2</v>
+      </c>
+      <c r="C31" s="73">
+        <f t="shared" si="1"/>
+        <v>0.97940118985469993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>17</v>
       </c>
-      <c r="B29" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A29, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>8.491097648524468E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="B32" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0591530883175089E-2</v>
+      </c>
+      <c r="C32" s="73">
+        <f t="shared" si="1"/>
+        <v>0.98999272073787503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>18</v>
       </c>
-      <c r="B30" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A30, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>3.9727772141187811E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="B33" s="73">
+        <f t="shared" si="0"/>
+        <v>5.4265250821205688E-3</v>
+      </c>
+      <c r="C33" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99541924581999564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>19</v>
       </c>
-      <c r="B31" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A31, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.7166604966091228E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="B34" s="73">
+        <f t="shared" si="0"/>
+        <v>2.6021933142332623E-3</v>
+      </c>
+      <c r="C34" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99802143913422892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>20</v>
       </c>
-      <c r="B32" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A32, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>6.867688730641772E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="B35" s="73">
+        <f t="shared" si="0"/>
+        <v>1.1709869914049654E-3</v>
+      </c>
+      <c r="C35" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99919242612563386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>21</v>
       </c>
-      <c r="B33" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A33, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>2.5493421423413576E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="B36" s="73">
+        <f t="shared" si="0"/>
+        <v>4.9565586937776347E-4</v>
+      </c>
+      <c r="C36" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99968808199501158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>22</v>
       </c>
-      <c r="B34" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A34, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>8.798078030497887E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="B37" s="73">
+        <f t="shared" si="0"/>
+        <v>1.9776168525678398E-4</v>
+      </c>
+      <c r="C37" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99988584368026834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>23</v>
       </c>
-      <c r="B35" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A35, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>2.8278042547175868E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+      <c r="B38" s="73">
+        <f t="shared" si="0"/>
+        <v>7.4518895893861071E-5</v>
+      </c>
+      <c r="C38" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99996036257616217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>24</v>
       </c>
-      <c r="B36" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A36, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>8.4779790787927615E-6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="B39" s="73">
+        <f t="shared" si="0"/>
+        <v>2.6564606406607781E-5</v>
+      </c>
+      <c r="C39" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99998692718256876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>25</v>
       </c>
-      <c r="B37" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A37, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>2.3742451955930567E-6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+      <c r="B40" s="73">
+        <f t="shared" si="0"/>
+        <v>8.9729337195652582E-6</v>
+      </c>
+      <c r="C40" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999590011628836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>26</v>
       </c>
-      <c r="B38" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A38, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>6.2186297379451063E-7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+      <c r="B41" s="73">
+        <f t="shared" si="0"/>
+        <v>2.8759402947324655E-6</v>
+      </c>
+      <c r="C41" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999877605658305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>27</v>
       </c>
-      <c r="B39" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A39, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.5250667940788888E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
+      <c r="B42" s="73">
+        <f t="shared" si="0"/>
+        <v>8.7580074819013169E-7</v>
+      </c>
+      <c r="C42" s="73">
+        <f t="shared" si="1"/>
+        <v>0.9999996518573312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
         <v>28</v>
       </c>
-      <c r="B40" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A40, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>3.5054696970524615E-8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
+      <c r="B43" s="73">
+        <f t="shared" si="0"/>
+        <v>2.5370418499158747E-7</v>
+      </c>
+      <c r="C43" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999990556151619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
         <v>29</v>
       </c>
-      <c r="B41" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A41, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>7.5589014223700343E-9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+      <c r="B44" s="73">
+        <f t="shared" si="0"/>
+        <v>6.9987361376989486E-8</v>
+      </c>
+      <c r="C44" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999997554887754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
         <v>30</v>
-      </c>
-      <c r="B42" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A42, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.5302980751071356E-9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>31</v>
-      </c>
-      <c r="B43" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A43, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>2.9107800815282656E-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>32</v>
-      </c>
-      <c r="B44" s="73">
-        <f t="shared" ref="B44:B75" si="0">_xlfn.HYPGEOM.DIST($C$3+A44, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>5.2051622476547426E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>33</v>
       </c>
       <c r="B45" s="73">
         <f t="shared" si="0"/>
-        <v>8.7557460195554163E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>1.8404083917652675E-8</v>
+      </c>
+      <c r="C45" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999395296146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B46" s="73">
         <f t="shared" si="0"/>
-        <v>1.3861103075815938E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>4.6175120940347336E-9</v>
+      </c>
+      <c r="C46" s="73">
+        <f t="shared" si="1"/>
+        <v>0.9999999985704735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47" s="73">
+        <f t="shared" ref="B47:B78" si="2">_xlfn.BINOM.DIST($C$5+A47,$C$6,$C$7,FALSE)</f>
+        <v>1.1062789391958223E-9</v>
+      </c>
+      <c r="C47" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999967675246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>33</v>
+      </c>
+      <c r="B48" s="73">
+        <f t="shared" si="2"/>
+        <v>2.5328945409197227E-10</v>
+      </c>
+      <c r="C48" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999993004196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" s="73">
+        <f t="shared" si="2"/>
+        <v>5.545880203974561E-11</v>
+      </c>
+      <c r="C49" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999998550071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
         <v>35</v>
       </c>
-      <c r="B47" s="73">
-        <f t="shared" si="0"/>
-        <v>2.066003934927462E-13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
+      <c r="B50" s="73">
+        <f t="shared" si="2"/>
+        <v>1.1619939474994299E-11</v>
+      </c>
+      <c r="C50" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999712064</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
         <v>36</v>
       </c>
-      <c r="B48" s="73">
-        <f t="shared" si="0"/>
-        <v>2.9003411167824933E-14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+      <c r="B51" s="73">
+        <f t="shared" si="2"/>
+        <v>2.3311606971439327E-12</v>
+      </c>
+      <c r="C51" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999945177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
         <v>37</v>
       </c>
-      <c r="B49" s="73">
-        <f t="shared" si="0"/>
-        <v>3.8360286784658221E-15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
+      <c r="B52" s="73">
+        <f t="shared" si="2"/>
+        <v>4.4803088473636733E-13</v>
+      </c>
+      <c r="C52" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999989986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
         <v>38</v>
       </c>
-      <c r="B50" s="73">
-        <f t="shared" si="0"/>
-        <v>4.7811825853632912E-16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+      <c r="B53" s="73">
+        <f t="shared" si="2"/>
+        <v>8.2532005083015306E-14</v>
+      </c>
+      <c r="C53" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999998235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
         <v>39</v>
       </c>
-      <c r="B51" s="73">
-        <f t="shared" si="0"/>
-        <v>5.6168411289804244E-17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
+      <c r="B54" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4578302892156667E-14</v>
+      </c>
+      <c r="C54" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
         <v>40</v>
       </c>
-      <c r="B52" s="73">
-        <f t="shared" si="0"/>
-        <v>6.2203172145642383E-18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
+      <c r="B55" s="73">
+        <f t="shared" si="2"/>
+        <v>2.4702124345043022E-15</v>
+      </c>
+      <c r="C55" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
         <v>41</v>
       </c>
-      <c r="B53" s="73">
-        <f t="shared" si="0"/>
-        <v>6.494342383466614E-19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
+      <c r="B56" s="73">
+        <f t="shared" si="2"/>
+        <v>4.0166055845598617E-16</v>
+      </c>
+      <c r="C56" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
         <v>42</v>
       </c>
-      <c r="B54" s="73">
-        <f t="shared" si="0"/>
-        <v>6.3926042972647932E-20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
+      <c r="B57" s="73">
+        <f t="shared" si="2"/>
+        <v>6.2693050129372666E-17</v>
+      </c>
+      <c r="C57" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
         <v>43</v>
       </c>
-      <c r="B55" s="73">
-        <f t="shared" si="0"/>
-        <v>5.9325004430464092E-21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
+      <c r="B58" s="73">
+        <f t="shared" si="2"/>
+        <v>9.3958576421283492E-18</v>
+      </c>
+      <c r="C58" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
         <v>44</v>
       </c>
-      <c r="B56" s="73">
-        <f t="shared" si="0"/>
-        <v>5.1902988850327588E-22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
+      <c r="B59" s="73">
+        <f t="shared" si="2"/>
+        <v>1.3524340545487657E-18</v>
+      </c>
+      <c r="C59" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
         <v>45</v>
       </c>
-      <c r="B57" s="73">
-        <f t="shared" si="0"/>
-        <v>4.2805462993985403E-23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
+      <c r="B60" s="73">
+        <f t="shared" si="2"/>
+        <v>1.8700322729563154E-19</v>
+      </c>
+      <c r="C60" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
         <v>46</v>
       </c>
-      <c r="B58" s="73">
-        <f t="shared" si="0"/>
-        <v>3.32733388726505E-24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+      <c r="B61" s="73">
+        <f t="shared" si="2"/>
+        <v>2.4843423916086421E-20</v>
+      </c>
+      <c r="C61" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
         <v>47</v>
       </c>
-      <c r="B59" s="73">
-        <f t="shared" si="0"/>
-        <v>2.4372643410447403E-25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
+      <c r="B62" s="73">
+        <f t="shared" si="2"/>
+        <v>3.1715009254578644E-21</v>
+      </c>
+      <c r="C62" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
         <v>48</v>
       </c>
-      <c r="B60" s="73">
-        <f t="shared" si="0"/>
-        <v>1.6819662770230498E-26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
+      <c r="B63" s="73">
+        <f t="shared" si="2"/>
+        <v>3.8909617835478817E-22</v>
+      </c>
+      <c r="C63" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
         <v>49</v>
       </c>
-      <c r="B61" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0932517999736125E-27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
+      <c r="B64" s="73">
+        <f t="shared" si="2"/>
+        <v>4.587982148401027E-23</v>
+      </c>
+      <c r="C64" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
         <v>50</v>
       </c>
-      <c r="B62" s="73">
-        <f t="shared" si="0"/>
-        <v>6.6907010158385149E-29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
+      <c r="B65" s="73">
+        <f t="shared" si="2"/>
+        <v>5.1997131015211782E-24</v>
+      </c>
+      <c r="C65" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
         <v>51</v>
       </c>
-      <c r="B63" s="73">
-        <f t="shared" si="0"/>
-        <v>3.8540016450303025E-30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
+      <c r="B66" s="73">
+        <f t="shared" si="2"/>
+        <v>5.6641754918532132E-25</v>
+      </c>
+      <c r="C66" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
         <v>52</v>
       </c>
-      <c r="B64" s="73">
-        <f t="shared" si="0"/>
-        <v>2.0886281034935327E-31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
+      <c r="B67" s="73">
+        <f t="shared" si="2"/>
+        <v>5.9304401517266333E-26</v>
+      </c>
+      <c r="C67" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
         <v>53</v>
       </c>
-      <c r="B65" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0644338849452939E-32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
+      <c r="B68" s="73">
+        <f t="shared" si="2"/>
+        <v>5.9677385174607181E-27</v>
+      </c>
+      <c r="C68" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
         <v>54</v>
       </c>
-      <c r="B66" s="73">
-        <f t="shared" si="0"/>
-        <v>5.0987389449305351E-34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
+      <c r="B69" s="73">
+        <f t="shared" si="2"/>
+        <v>5.7712697596842454E-28</v>
+      </c>
+      <c r="C69" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
         <v>55</v>
       </c>
-      <c r="B67" s="73">
-        <f t="shared" si="0"/>
-        <v>2.2942969925513589E-35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
+      <c r="B70" s="73">
+        <f t="shared" si="2"/>
+        <v>5.363200180716623E-29</v>
+      </c>
+      <c r="C70" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
         <v>56</v>
       </c>
-      <c r="B68" s="73">
-        <f t="shared" si="0"/>
-        <v>9.6919880881107569E-37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
+      <c r="B71" s="73">
+        <f t="shared" si="2"/>
+        <v>4.7885715899256424E-30</v>
+      </c>
+      <c r="C71" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
         <v>57</v>
       </c>
-      <c r="B69" s="73">
-        <f t="shared" si="0"/>
-        <v>3.8411613213333366E-38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
+      <c r="B72" s="73">
+        <f t="shared" si="2"/>
+        <v>4.1071569192343688E-31</v>
+      </c>
+      <c r="C72" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
         <v>58</v>
       </c>
-      <c r="B70" s="73">
-        <f t="shared" si="0"/>
-        <v>1.4271978303885642E-39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
+      <c r="B73" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3832901825110975E-32</v>
+      </c>
+      <c r="C73" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
         <v>59</v>
       </c>
-      <c r="B71" s="73">
-        <f t="shared" si="0"/>
-        <v>4.96749664135536E-41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
+      <c r="B74" s="73">
+        <f t="shared" si="2"/>
+        <v>2.6760487319297037E-33</v>
+      </c>
+      <c r="C74" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
         <v>60</v>
       </c>
-      <c r="B72" s="73">
-        <f t="shared" si="0"/>
-        <v>1.6182871810307209E-42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
+      <c r="B75" s="73">
+        <f t="shared" si="2"/>
+        <v>2.0318147779466289E-34</v>
+      </c>
+      <c r="C75" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
         <v>61</v>
       </c>
-      <c r="B73" s="73">
-        <f t="shared" si="0"/>
-        <v>4.9299508570841724E-44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
+      <c r="B76" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4803750658991942E-35</v>
+      </c>
+      <c r="C76" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
         <v>62</v>
       </c>
-      <c r="B74" s="73">
-        <f t="shared" si="0"/>
-        <v>1.4030490333105947E-45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
+      <c r="B77" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0346707449832798E-36</v>
+      </c>
+      <c r="C77" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
         <v>63</v>
       </c>
-      <c r="B75" s="73">
-        <f t="shared" si="0"/>
-        <v>3.72639335669301E-47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
+      <c r="B78" s="73">
+        <f t="shared" si="2"/>
+        <v>6.9343012891297561E-38</v>
+      </c>
+      <c r="C78" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
         <v>64</v>
       </c>
-      <c r="B76" s="73">
-        <f t="shared" ref="B76:B107" si="1">_xlfn.HYPGEOM.DIST($C$3+A76, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>9.2256808906844419E-49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
+      <c r="B79" s="73">
+        <f t="shared" ref="B79:B110" si="3">_xlfn.BINOM.DIST($C$5+A79,$C$6,$C$7,FALSE)</f>
+        <v>4.4543254808645239E-39</v>
+      </c>
+      <c r="C79" s="73">
+        <f t="shared" ref="C79:C115" si="4">C78+B79</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
         <v>65</v>
       </c>
-      <c r="B77" s="73">
-        <f t="shared" si="1"/>
-        <v>2.1265420069945768E-50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
+      <c r="B80" s="73">
+        <f t="shared" si="3"/>
+        <v>2.7411233728397261E-40</v>
+      </c>
+      <c r="C80" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
         <v>66</v>
       </c>
-      <c r="B78" s="73">
-        <f t="shared" si="1"/>
-        <v>4.5577261504798497E-52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
+      <c r="B81" s="73">
+        <f t="shared" si="3"/>
+        <v>1.6151400345015282E-41</v>
+      </c>
+      <c r="C81" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
         <v>67</v>
       </c>
-      <c r="B79" s="73">
-        <f t="shared" si="1"/>
-        <v>9.0701017919998652E-54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
+      <c r="B82" s="73">
+        <f t="shared" si="3"/>
+        <v>9.1069255676700303E-43</v>
+      </c>
+      <c r="C82" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
         <v>68</v>
       </c>
-      <c r="B80" s="73">
-        <f t="shared" si="1"/>
-        <v>1.6734448447221738E-55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
+      <c r="B83" s="73">
+        <f t="shared" si="3"/>
+        <v>4.9105971198221842E-44</v>
+      </c>
+      <c r="C83" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
         <v>69</v>
       </c>
-      <c r="B81" s="73">
-        <f t="shared" si="1"/>
-        <v>2.8578701505902486E-57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
+      <c r="B84" s="73">
+        <f t="shared" si="3"/>
+        <v>2.5304204160113902E-45</v>
+      </c>
+      <c r="C84" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
         <v>70</v>
       </c>
-      <c r="B82" s="73">
-        <f t="shared" si="1"/>
-        <v>4.50970971217953E-59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
+      <c r="B85" s="73">
+        <f t="shared" si="3"/>
+        <v>1.245127506291343E-46</v>
+      </c>
+      <c r="C85" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
         <v>71</v>
       </c>
-      <c r="B83" s="73">
-        <f t="shared" si="1"/>
-        <v>6.5631841997405693E-61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
+      <c r="B86" s="73">
+        <f t="shared" si="3"/>
+        <v>5.8456690436213078E-48</v>
+      </c>
+      <c r="C86" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
         <v>72</v>
       </c>
-      <c r="B84" s="73">
-        <f t="shared" si="1"/>
-        <v>8.7914722094511613E-63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
+      <c r="B87" s="73">
+        <f t="shared" si="3"/>
+        <v>2.6161173189045807E-49</v>
+      </c>
+      <c r="C87" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
         <v>73</v>
       </c>
-      <c r="B85" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0815349702976235E-64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
+      <c r="B88" s="73">
+        <f t="shared" si="3"/>
+        <v>1.114935843673196E-50</v>
+      </c>
+      <c r="C88" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
         <v>74</v>
       </c>
-      <c r="B86" s="73">
-        <f t="shared" si="1"/>
-        <v>1.2190596099742504E-66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
+      <c r="B89" s="73">
+        <f t="shared" si="3"/>
+        <v>4.5200101770534302E-52</v>
+      </c>
+      <c r="C89" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
         <v>75</v>
       </c>
-      <c r="B87" s="73">
-        <f t="shared" si="1"/>
-        <v>1.2557474991887378E-68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
+      <c r="B90" s="73">
+        <f t="shared" si="3"/>
+        <v>1.7410409570873E-53</v>
+      </c>
+      <c r="C90" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
         <v>76</v>
       </c>
-      <c r="B88" s="73">
-        <f t="shared" si="1"/>
-        <v>1.178866538982463E-70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
+      <c r="B91" s="73">
+        <f t="shared" si="3"/>
+        <v>6.3634537905236743E-55</v>
+      </c>
+      <c r="C91" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
         <v>77</v>
       </c>
-      <c r="B89" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0055341060194556E-72</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
+      <c r="B92" s="73">
+        <f t="shared" si="3"/>
+        <v>2.2037935205276515E-56</v>
+      </c>
+      <c r="C92" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
         <v>78</v>
       </c>
-      <c r="B90" s="73">
-        <f t="shared" si="1"/>
-        <v>7.7671798096533188E-75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
+      <c r="B93" s="73">
+        <f t="shared" si="3"/>
+        <v>7.2204061213869564E-58</v>
+      </c>
+      <c r="C93" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
         <v>79</v>
       </c>
-      <c r="B91" s="73">
-        <f t="shared" si="1"/>
-        <v>5.4136821587711785E-77</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
+      <c r="B94" s="73">
+        <f t="shared" si="3"/>
+        <v>2.2341622316527636E-59</v>
+      </c>
+      <c r="C94" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
         <v>80</v>
       </c>
-      <c r="B92" s="73">
-        <f t="shared" si="1"/>
-        <v>3.3912412386619798E-79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
+      <c r="B95" s="73">
+        <f t="shared" si="3"/>
+        <v>6.5163065089875096E-61</v>
+      </c>
+      <c r="C95" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
         <v>81</v>
       </c>
-      <c r="B93" s="73">
-        <f t="shared" si="1"/>
-        <v>1.9008933387491725E-81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
+      <c r="B96" s="73">
+        <f t="shared" si="3"/>
+        <v>1.7877384112448034E-62</v>
+      </c>
+      <c r="C96" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
         <v>82</v>
       </c>
-      <c r="B94" s="73">
-        <f t="shared" si="1"/>
-        <v>9.4881712196292503E-84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
+      <c r="B97" s="73">
+        <f t="shared" si="3"/>
+        <v>4.6025785655353375E-64</v>
+      </c>
+      <c r="C97" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
         <v>83</v>
       </c>
-      <c r="B95" s="73">
-        <f t="shared" si="1"/>
-        <v>4.1945823727432947E-86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
+      <c r="B98" s="73">
+        <f t="shared" si="3"/>
+        <v>1.1090550760326037E-65</v>
+      </c>
+      <c r="C98" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
         <v>84</v>
       </c>
-      <c r="B96" s="73">
-        <f t="shared" si="1"/>
-        <v>1.6325068758387031E-88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
+      <c r="B99" s="73">
+        <f t="shared" si="3"/>
+        <v>2.4939069170045814E-67</v>
+      </c>
+      <c r="C99" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
         <v>85</v>
       </c>
-      <c r="B97" s="73">
-        <f t="shared" si="1"/>
-        <v>5.5556232663970589E-91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
+      <c r="B100" s="73">
+        <f t="shared" si="3"/>
+        <v>5.2160144669377636E-69</v>
+      </c>
+      <c r="C100" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
         <v>86</v>
       </c>
-      <c r="B98" s="73">
-        <f t="shared" si="1"/>
-        <v>1.6405260577186745E-93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
+      <c r="B101" s="73">
+        <f t="shared" si="3"/>
+        <v>1.010855516848429E-70</v>
+      </c>
+      <c r="C101" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
         <v>87</v>
       </c>
-      <c r="B99" s="73">
-        <f t="shared" si="1"/>
-        <v>4.166739329431051E-96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
+      <c r="B102" s="73">
+        <f t="shared" si="3"/>
+        <v>1.8074045001120615E-72</v>
+      </c>
+      <c r="C102" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
         <v>88</v>
       </c>
-      <c r="B100" s="73">
-        <f t="shared" si="1"/>
-        <v>9.0112989695159892E-99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
+      <c r="B103" s="73">
+        <f t="shared" si="3"/>
+        <v>2.9666993057394377E-74</v>
+      </c>
+      <c r="C103" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
         <v>89</v>
       </c>
-      <c r="B101" s="73">
-        <f t="shared" si="1"/>
-        <v>1.6400539068138969E-101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
+      <c r="B104" s="73">
+        <f t="shared" si="3"/>
+        <v>4.4444933419318628E-76</v>
+      </c>
+      <c r="C104" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
         <v>90</v>
       </c>
-      <c r="B102" s="73">
-        <f t="shared" si="1"/>
-        <v>2.4774846782083489E-104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
+      <c r="B105" s="73">
+        <f t="shared" si="3"/>
+        <v>6.0357316989197273E-78</v>
+      </c>
+      <c r="C105" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
         <v>91</v>
       </c>
-      <c r="B103" s="73">
-        <f t="shared" si="1"/>
-        <v>3.0555674920245768E-107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
+      <c r="B106" s="73">
+        <f t="shared" si="3"/>
+        <v>7.3696357740169999E-80</v>
+      </c>
+      <c r="C106" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
         <v>92</v>
       </c>
-      <c r="B104" s="73">
-        <f t="shared" si="1"/>
-        <v>3.0159505611958273E-110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
+      <c r="B107" s="73">
+        <f t="shared" si="3"/>
+        <v>8.0104736674095456E-82</v>
+      </c>
+      <c r="C107" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
         <v>93</v>
       </c>
-      <c r="B105" s="73">
-        <f t="shared" si="1"/>
-        <v>2.3241801336143413E-113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
+      <c r="B108" s="73">
+        <f t="shared" si="3"/>
+        <v>7.6563667072015817E-84</v>
+      </c>
+      <c r="C108" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
         <v>94</v>
       </c>
-      <c r="B106" s="73">
-        <f t="shared" si="1"/>
-        <v>1.3551909484875904E-116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
+      <c r="B109" s="73">
+        <f t="shared" si="3"/>
+        <v>6.3350551950838622E-86</v>
+      </c>
+      <c r="C109" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
         <v>95</v>
       </c>
-      <c r="B107" s="73">
-        <f t="shared" si="1"/>
-        <v>5.7379446216468944E-120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
+      <c r="B110" s="73">
+        <f t="shared" si="3"/>
+        <v>4.445652768479891E-88</v>
+      </c>
+      <c r="C110" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
         <v>96</v>
       </c>
-      <c r="B108" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A108, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.6676968882669761E-123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
+      <c r="B111" s="73">
+        <f t="shared" ref="B111:B115" si="5">_xlfn.BINOM.DIST($C$5+A111,$C$6,$C$7,FALSE)</f>
+        <v>2.5727157224999704E-90</v>
+      </c>
+      <c r="C111" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
         <v>97</v>
       </c>
-      <c r="B109" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A109, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>3.0667115140128081E-127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
+      <c r="B112" s="73">
+        <f t="shared" si="5"/>
+        <v>1.1787930000000177E-92</v>
+      </c>
+      <c r="C112" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
         <v>98</v>
       </c>
-      <c r="B110" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A110, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>3.1362669453788456E-131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
+      <c r="B113" s="73">
+        <f t="shared" si="5"/>
+        <v>4.0094999999999102E-95</v>
+      </c>
+      <c r="C113" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
         <v>99</v>
       </c>
-      <c r="B111" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A111, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.409542340144005E-135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
+      <c r="B114" s="73">
+        <f t="shared" si="5"/>
+        <v>8.999999999999935E-98</v>
+      </c>
+      <c r="C114" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
         <v>100</v>
       </c>
-      <c r="B112" s="73">
-        <f>_xlfn.HYPGEOM.DIST($C$3+A112, $C$4, $C$5,$C$6, FALSE)</f>
-        <v>1.5661581557156247E-140</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="73"/>
+      <c r="B115" s="73">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000174E-100</v>
+      </c>
+      <c r="C115" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/統計学.xlsx
+++ b/統計学.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuusaku.hayashi\project\hysr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C16FE-A6FF-4F08-9FC5-3FF32B3E106F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70548602-3DC2-4466-B042-8E5967B40B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet1 (2)" sheetId="5" r:id="rId5"/>
     <sheet name="超幾何分布" sheetId="7" r:id="rId6"/>
     <sheet name="二項分布" sheetId="8" r:id="rId7"/>
+    <sheet name="ポアソン分布" sheetId="9" r:id="rId8"/>
+    <sheet name="幾何分布" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>(xa, mY)</t>
     <phoneticPr fontId="1"/>
@@ -893,6 +895,158 @@
     <t>np(1-p)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>発生回数k</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事象の平均発生回数</t>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事象の発生回数</t>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均発生回数λ</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>期間中、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均λ回発生する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事象が、同期間中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k回発生する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>確率</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>キカンチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ドウキカンチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポアソン分布は期待値と分散が等しい</t>
+    <rPh sb="4" eb="6">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポアソン分布</t>
+    <rPh sb="4" eb="6">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3837,6 +3991,2338 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>pdf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ポアソン分布!$B$15:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>8.75651076269652E-27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2539064576179108E-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5761719372853651E-23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.152343874570744E-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.728515811856133E-21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6742189742273632E-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6742189742273411E-19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8636162636234339E-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6477121977175906E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4318081318117187E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.459084879087027E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9586447950201824E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9793223975100729E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8366103373123481E-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8711871599100546E-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1484748639640174E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1806780739865109E-11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1670990846582851E-11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3890330282194243E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.386420089113977E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.315926026734193E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7597886478119847E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0253969039487166E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6749484450836144E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.6873711127090178E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.604969067050164E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7037747701157785E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2306106002572851E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7637022714836967E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.649039182380066E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2980783647601396E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4125312964051856E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6484961807597371E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.81544760138133E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.497848708319989E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4567740642834194E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4279567738057136E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9372272007660137E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2166745275253122E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5641146577312016E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4346171986596859E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0994398029166124E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9991997184523004E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1849298397008804E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7067225086830211E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.6089633449106953E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.924734797709606E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2669874209842056E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5837342762302566E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9392664606901127E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3271197528281277E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7377879445036855E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1589860898119444E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5762106677116358E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9735674085684798E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.3348008093474374E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.6444294385865385E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8888730932489861E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0574549240506743E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1431744990345848E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1431744990345862E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0588601629848386E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8956711254691976E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.6625439290182834E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3711349334546436E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0348937847273621E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.6680852588430575E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.2848524706057224E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8983992387697527E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5203471641476152E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1602975692693836E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8256035796642658E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5213363163868902E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2504134107289504E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0138487114018515E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.110789691214813E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.403255019380107E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.9895493657507433E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8381148967313295E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9150239722010203E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1862679791507631E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6194577623338978E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1849690943906577E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.5660416461975236E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.1186011758553808E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.3190125947214364E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.0132646009684488E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0781135179092752E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4168955803926846E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.5521050363551717E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.3680700242368078E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1987274885077858E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.7383005359833276E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7666455070860094E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1276460683527758E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.1219751685438776E-6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4512344803398851E-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.7533409156741534E-6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6857189279637756E-6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0216478351295726E-6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.1298870107773643E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9766-450B-9996-9D5BD00E2970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="311610440"/>
+        <c:axId val="311611096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="311610440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311611096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311611096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311610440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>cdf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ポアソン分布!$C$15:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>8.75651076269652E-27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3414715652448756E-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6295866529378139E-23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3153025398645255E-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0600460658425852E-21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1802235808116223E-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2922413323085033E-19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4928403968542843E-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1969962374030193E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8515077555520205E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.744235654642229E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7028804496624112E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9496104424763137E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3315713815599795E-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0202758541470034E-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1687507181110205E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5975531457976131E-11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7646522304558982E-11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9654982512650141E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3519183403789916E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9511178607720922E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.7109065085840774E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5964875548071243E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2714359998907384E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0958807112599756E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7008497783101396E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4046245484259176E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4635235148683202E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2272257863520171E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8762649687320835E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4174343333492223E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8299656297544079E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4784618105141447E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0293909411895475E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8791758120215464E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3359498763049658E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7639066501106789E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.7011338508766931E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5917808378402005E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5481923036133206E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9828095022730065E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0822493051896189E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0814490236419201E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3266378863342801E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8973101372025823E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.658206471693652E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6506799514646124E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9176673724488182E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5014016486790754E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.4406681093691885E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.10767787862197316</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.13505575806701001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.16664561896512944</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.20240772564224579</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.24214339972793059</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28549140782140497</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.33193570220727037</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.38082443313976022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.43139898238026697</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48283072737061283</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.5342624723609587</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58485107399080705</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63380778524549908</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.68043322453568189</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.72414457387022835</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76449351171750202</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.80117436430593258</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83402288901198984</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.8630068813996874</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.88821035304116358</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.90981332873385745</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92806936453050015</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.94328272769436905</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.9557868618016585</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96592534891567705</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.97403613860689187</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98043939362627197</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98542894299202266</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98926705788875402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99218208186095502</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.9943683498401058</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99598780760243966</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99717277669683035</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9980293808614501</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99864124097903562</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99907314223850774</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99937446869860458</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99958228005039551</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99972396960843479</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99981949065879838</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9998831713590407</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99992515863392573</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9999525416392856</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99997020809435644</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99998148455503999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99998860653020849</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99999305776468883</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99999581110560454</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99999749682453254</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99999851847236765</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999913146106878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28B4-4A04-9417-94EC3355C0B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="476019392"/>
+        <c:axId val="476029232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="476019392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476029232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476029232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476019392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>pdf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>幾何分布!$B$15:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.6561398887587476E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9512665430652773E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6231965986859046E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8916024693043889E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5874595542292376E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3865803823557049E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9578728948850357E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.889524636812593E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11482302655882935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1304162770791642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13186534682448822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11987758802226202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8788012351678889E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4302094760237067E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1303827334449464E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2682438153797441E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9291716965783169E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0591530883175089E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4265250821205688E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6021933142332623E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1709869914049654E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9565586937776347E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9776168525678398E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4518895893861071E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6564606406607781E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9729337195652582E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8759402947324655E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.7580074819013169E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5370418499158747E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9987361376989486E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8404083917652675E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6175120940347336E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1062789391958223E-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5328945409197227E-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.545880203974561E-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1619939474994299E-11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3311606971439327E-12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4803088473636733E-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.2532005083015306E-14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4578302892156667E-14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4702124345043022E-15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0166055845598617E-16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2693050129372666E-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3958576421283492E-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3524340545487657E-18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8700322729563154E-19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4843423916086421E-20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1715009254578644E-21</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8909617835478817E-22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.587982148401027E-23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.1997131015211782E-24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6641754918532132E-25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9304401517266333E-26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9677385174607181E-27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.7712697596842454E-28</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.363200180716623E-29</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7885715899256424E-30</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1071569192343688E-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3832901825110975E-32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6760487319297037E-33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0318147779466289E-34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4803750658991942E-35</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0346707449832798E-36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.9343012891297561E-38</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.4543254808645239E-39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7411233728397261E-40</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6151400345015282E-41</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.1069255676700303E-43</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9105971198221842E-44</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5304204160113902E-45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.245127506291343E-46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8456690436213078E-48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.6161173189045807E-49</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.114935843673196E-50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.5200101770534302E-52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7410409570873E-53</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.3634537905236743E-55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2037935205276515E-56</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.2204061213869564E-58</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2341622316527636E-59</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.5163065089875096E-61</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7877384112448034E-62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6025785655353375E-64</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1090550760326037E-65</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.4939069170045814E-67</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2160144669377636E-69</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.010855516848429E-70</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8074045001120615E-72</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.9666993057394377E-74</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.4444933419318628E-76</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.0357316989197273E-78</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.3696357740169999E-80</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.0104736674095456E-82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.6563667072015817E-84</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.3350551950838622E-86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.445652768479891E-88</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5727157224999704E-90</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1787930000000177E-92</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.0094999999999102E-95</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.999999999999935E-98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0000000000000174E-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D175-4DD6-A724-3F20782EB038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="311610440"/>
+        <c:axId val="311611096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="311610440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311611096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311611096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311610440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>cdf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>幾何分布!$C$15:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.6561398887587476E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2168805319411522E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9448846518800198E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8364871211844093E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3711082663476785E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7576886487033838E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11715561543588419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20605086180401011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32087388836283948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45129016544200368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58315551226649187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70303310028875388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80182111264043276</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87612320740066985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92742703473511934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96010947288891679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97940118985469993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98999272073787503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99541924581999564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99802143913422892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99919242612563386</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99968808199501158</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99988584368026834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99996036257616217</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99998692718256876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99999590011628836</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999877605658305</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9999996518573312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99999990556151619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99999997554887754</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99999999395296146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9999999985704735</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99999999967675246</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99999999993004196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99999999998550071</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99999999999712064</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99999999999945177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99999999999989986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99999999999998235</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99999999999999689</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF11-4F90-9BD3-2F67898C2480}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="476019392"/>
+        <c:axId val="476029232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="476019392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476029232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476029232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476019392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3997,6 +6483,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5507,6 +8153,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7914,8 +12572,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1550040" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -7996,7 +12654,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8009,7 +12667,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8039,7 +12697,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8052,7 +12710,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8125,7 +12783,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8200,7 +12858,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8216,7 +12874,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -8450,6 +13108,926 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A2C150-7A57-41B3-8137-E39883AF1EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1550040" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32182463-D4ED-48A8-B02E-CC39C739B709}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2066925" y="238125"/>
+              <a:ext cx="1550040" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32182463-D4ED-48A8-B02E-CC39C739B709}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2066925" y="238125"/>
+              <a:ext cx="1550040" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> _𝑛 𝐶_𝑥 𝑝^𝑥 〖(1−𝑝)〗^(𝑛−𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA961DA-BBFF-4BB8-BF32-92A04D0B5637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E46114-2D68-4069-8B83-7C564B77572A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1550040" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F768FD9-315E-4A62-8B2D-E610F15CB695}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2066925" y="238125"/>
+              <a:ext cx="1550040" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F768FD9-315E-4A62-8B2D-E610F15CB695}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2066925" y="238125"/>
+              <a:ext cx="1550040" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓(𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> _𝑛 𝐶_𝑥 𝑝^𝑥 〖(1−𝑝)〗^(𝑛−𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2CDFED-4CDA-4DD1-B959-6A8AD1328E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5FFC11-9ED5-4A98-BC44-F6ABB738A68B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9499,7 +15077,7 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10957,6 +16535,2909 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46DA1E0-C638-44EA-BF89-BE1AEA9E17CE}">
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="74"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="80">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C8" s="81"/>
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1">
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="83">
+        <f>C6*C7</f>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="75"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" thickBot="1">
+      <c r="B11" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="85">
+        <f>C10*(1-C7)</f>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="86"/>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="73">
+        <f t="shared" ref="B15:B46" si="0">_xlfn.BINOM.DIST($C$5+A15,$C$6,$C$7,FALSE)</f>
+        <v>2.6561398887587476E-5</v>
+      </c>
+      <c r="C15" s="73">
+        <f t="shared" ref="C15:C78" si="1">C14+B15</f>
+        <v>2.6561398887587476E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="73">
+        <f t="shared" si="0"/>
+        <v>2.9512665430652773E-4</v>
+      </c>
+      <c r="C16" s="73">
+        <f t="shared" si="1"/>
+        <v>3.2168805319411522E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="73">
+        <f t="shared" si="0"/>
+        <v>1.6231965986859046E-3</v>
+      </c>
+      <c r="C17" s="73">
+        <f t="shared" si="1"/>
+        <v>1.9448846518800198E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="73">
+        <f t="shared" si="0"/>
+        <v>5.8916024693043889E-3</v>
+      </c>
+      <c r="C18" s="73">
+        <f t="shared" si="1"/>
+        <v>7.8364871211844093E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="73">
+        <f t="shared" si="0"/>
+        <v>1.5874595542292376E-2</v>
+      </c>
+      <c r="C19" s="73">
+        <f t="shared" si="1"/>
+        <v>2.3711082663476785E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="73">
+        <f t="shared" si="0"/>
+        <v>3.3865803823557049E-2</v>
+      </c>
+      <c r="C20" s="73">
+        <f t="shared" si="1"/>
+        <v>5.7576886487033838E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="73">
+        <f t="shared" si="0"/>
+        <v>5.9578728948850357E-2</v>
+      </c>
+      <c r="C21" s="73">
+        <f t="shared" si="1"/>
+        <v>0.11715561543588419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="73">
+        <f t="shared" si="0"/>
+        <v>8.889524636812593E-2</v>
+      </c>
+      <c r="C22" s="73">
+        <f t="shared" si="1"/>
+        <v>0.20605086180401011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="73">
+        <f t="shared" si="0"/>
+        <v>0.11482302655882935</v>
+      </c>
+      <c r="C23" s="73">
+        <f t="shared" si="1"/>
+        <v>0.32087388836283948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" s="73">
+        <f t="shared" si="0"/>
+        <v>0.1304162770791642</v>
+      </c>
+      <c r="C24" s="73">
+        <f t="shared" si="1"/>
+        <v>0.45129016544200368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="73">
+        <f t="shared" si="0"/>
+        <v>0.13186534682448822</v>
+      </c>
+      <c r="C25" s="73">
+        <f t="shared" si="1"/>
+        <v>0.58315551226649187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="73">
+        <f t="shared" si="0"/>
+        <v>0.11987758802226202</v>
+      </c>
+      <c r="C26" s="73">
+        <f t="shared" si="1"/>
+        <v>0.70303310028875388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="73">
+        <f t="shared" si="0"/>
+        <v>9.8788012351678889E-2</v>
+      </c>
+      <c r="C27" s="73">
+        <f t="shared" si="1"/>
+        <v>0.80182111264043276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="73">
+        <f t="shared" si="0"/>
+        <v>7.4302094760237067E-2</v>
+      </c>
+      <c r="C28" s="73">
+        <f t="shared" si="1"/>
+        <v>0.87612320740066985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="73">
+        <f t="shared" si="0"/>
+        <v>5.1303827334449464E-2</v>
+      </c>
+      <c r="C29" s="73">
+        <f t="shared" si="1"/>
+        <v>0.92742703473511934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="73">
+        <f t="shared" si="0"/>
+        <v>3.2682438153797441E-2</v>
+      </c>
+      <c r="C30" s="73">
+        <f t="shared" si="1"/>
+        <v>0.96010947288891679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" s="73">
+        <f t="shared" si="0"/>
+        <v>1.9291716965783169E-2</v>
+      </c>
+      <c r="C31" s="73">
+        <f t="shared" si="1"/>
+        <v>0.97940118985469993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0591530883175089E-2</v>
+      </c>
+      <c r="C32" s="73">
+        <f t="shared" si="1"/>
+        <v>0.98999272073787503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33" s="73">
+        <f t="shared" si="0"/>
+        <v>5.4265250821205688E-3</v>
+      </c>
+      <c r="C33" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99541924581999564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34" s="73">
+        <f t="shared" si="0"/>
+        <v>2.6021933142332623E-3</v>
+      </c>
+      <c r="C34" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99802143913422892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="73">
+        <f t="shared" si="0"/>
+        <v>1.1709869914049654E-3</v>
+      </c>
+      <c r="C35" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99919242612563386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36" s="73">
+        <f t="shared" si="0"/>
+        <v>4.9565586937776347E-4</v>
+      </c>
+      <c r="C36" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99968808199501158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37" s="73">
+        <f t="shared" si="0"/>
+        <v>1.9776168525678398E-4</v>
+      </c>
+      <c r="C37" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99988584368026834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" s="73">
+        <f t="shared" si="0"/>
+        <v>7.4518895893861071E-5</v>
+      </c>
+      <c r="C38" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99996036257616217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" s="73">
+        <f t="shared" si="0"/>
+        <v>2.6564606406607781E-5</v>
+      </c>
+      <c r="C39" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99998692718256876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40" s="73">
+        <f t="shared" si="0"/>
+        <v>8.9729337195652582E-6</v>
+      </c>
+      <c r="C40" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999590011628836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>26</v>
+      </c>
+      <c r="B41" s="73">
+        <f t="shared" si="0"/>
+        <v>2.8759402947324655E-6</v>
+      </c>
+      <c r="C41" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999877605658305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" s="73">
+        <f t="shared" si="0"/>
+        <v>8.7580074819013169E-7</v>
+      </c>
+      <c r="C42" s="73">
+        <f t="shared" si="1"/>
+        <v>0.9999996518573312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>28</v>
+      </c>
+      <c r="B43" s="73">
+        <f t="shared" si="0"/>
+        <v>2.5370418499158747E-7</v>
+      </c>
+      <c r="C43" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999990556151619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>29</v>
+      </c>
+      <c r="B44" s="73">
+        <f t="shared" si="0"/>
+        <v>6.9987361376989486E-8</v>
+      </c>
+      <c r="C44" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999997554887754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45" s="73">
+        <f t="shared" si="0"/>
+        <v>1.8404083917652675E-8</v>
+      </c>
+      <c r="C45" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999395296146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>31</v>
+      </c>
+      <c r="B46" s="73">
+        <f t="shared" si="0"/>
+        <v>4.6175120940347336E-9</v>
+      </c>
+      <c r="C46" s="73">
+        <f t="shared" si="1"/>
+        <v>0.9999999985704735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47" s="73">
+        <f t="shared" ref="B47:B78" si="2">_xlfn.BINOM.DIST($C$5+A47,$C$6,$C$7,FALSE)</f>
+        <v>1.1062789391958223E-9</v>
+      </c>
+      <c r="C47" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999967675246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>33</v>
+      </c>
+      <c r="B48" s="73">
+        <f t="shared" si="2"/>
+        <v>2.5328945409197227E-10</v>
+      </c>
+      <c r="C48" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999993004196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" s="73">
+        <f t="shared" si="2"/>
+        <v>5.545880203974561E-11</v>
+      </c>
+      <c r="C49" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999998550071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>35</v>
+      </c>
+      <c r="B50" s="73">
+        <f t="shared" si="2"/>
+        <v>1.1619939474994299E-11</v>
+      </c>
+      <c r="C50" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999712064</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>36</v>
+      </c>
+      <c r="B51" s="73">
+        <f t="shared" si="2"/>
+        <v>2.3311606971439327E-12</v>
+      </c>
+      <c r="C51" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999945177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>37</v>
+      </c>
+      <c r="B52" s="73">
+        <f t="shared" si="2"/>
+        <v>4.4803088473636733E-13</v>
+      </c>
+      <c r="C52" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999989986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53" s="73">
+        <f t="shared" si="2"/>
+        <v>8.2532005083015306E-14</v>
+      </c>
+      <c r="C53" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999998235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>39</v>
+      </c>
+      <c r="B54" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4578302892156667E-14</v>
+      </c>
+      <c r="C54" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55" s="73">
+        <f t="shared" si="2"/>
+        <v>2.4702124345043022E-15</v>
+      </c>
+      <c r="C55" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" s="73">
+        <f t="shared" si="2"/>
+        <v>4.0166055845598617E-16</v>
+      </c>
+      <c r="C56" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" s="73">
+        <f t="shared" si="2"/>
+        <v>6.2693050129372666E-17</v>
+      </c>
+      <c r="C57" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>43</v>
+      </c>
+      <c r="B58" s="73">
+        <f t="shared" si="2"/>
+        <v>9.3958576421283492E-18</v>
+      </c>
+      <c r="C58" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>44</v>
+      </c>
+      <c r="B59" s="73">
+        <f t="shared" si="2"/>
+        <v>1.3524340545487657E-18</v>
+      </c>
+      <c r="C59" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60" s="73">
+        <f t="shared" si="2"/>
+        <v>1.8700322729563154E-19</v>
+      </c>
+      <c r="C60" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>46</v>
+      </c>
+      <c r="B61" s="73">
+        <f t="shared" si="2"/>
+        <v>2.4843423916086421E-20</v>
+      </c>
+      <c r="C61" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>47</v>
+      </c>
+      <c r="B62" s="73">
+        <f t="shared" si="2"/>
+        <v>3.1715009254578644E-21</v>
+      </c>
+      <c r="C62" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>48</v>
+      </c>
+      <c r="B63" s="73">
+        <f t="shared" si="2"/>
+        <v>3.8909617835478817E-22</v>
+      </c>
+      <c r="C63" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>49</v>
+      </c>
+      <c r="B64" s="73">
+        <f t="shared" si="2"/>
+        <v>4.587982148401027E-23</v>
+      </c>
+      <c r="C64" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>50</v>
+      </c>
+      <c r="B65" s="73">
+        <f t="shared" si="2"/>
+        <v>5.1997131015211782E-24</v>
+      </c>
+      <c r="C65" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>51</v>
+      </c>
+      <c r="B66" s="73">
+        <f t="shared" si="2"/>
+        <v>5.6641754918532132E-25</v>
+      </c>
+      <c r="C66" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>52</v>
+      </c>
+      <c r="B67" s="73">
+        <f t="shared" si="2"/>
+        <v>5.9304401517266333E-26</v>
+      </c>
+      <c r="C67" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>53</v>
+      </c>
+      <c r="B68" s="73">
+        <f t="shared" si="2"/>
+        <v>5.9677385174607181E-27</v>
+      </c>
+      <c r="C68" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>54</v>
+      </c>
+      <c r="B69" s="73">
+        <f t="shared" si="2"/>
+        <v>5.7712697596842454E-28</v>
+      </c>
+      <c r="C69" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>55</v>
+      </c>
+      <c r="B70" s="73">
+        <f t="shared" si="2"/>
+        <v>5.363200180716623E-29</v>
+      </c>
+      <c r="C70" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>56</v>
+      </c>
+      <c r="B71" s="73">
+        <f t="shared" si="2"/>
+        <v>4.7885715899256424E-30</v>
+      </c>
+      <c r="C71" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>57</v>
+      </c>
+      <c r="B72" s="73">
+        <f t="shared" si="2"/>
+        <v>4.1071569192343688E-31</v>
+      </c>
+      <c r="C72" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>58</v>
+      </c>
+      <c r="B73" s="73">
+        <f t="shared" si="2"/>
+        <v>3.3832901825110975E-32</v>
+      </c>
+      <c r="C73" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>59</v>
+      </c>
+      <c r="B74" s="73">
+        <f t="shared" si="2"/>
+        <v>2.6760487319297037E-33</v>
+      </c>
+      <c r="C74" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="B75" s="73">
+        <f t="shared" si="2"/>
+        <v>2.0318147779466289E-34</v>
+      </c>
+      <c r="C75" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>61</v>
+      </c>
+      <c r="B76" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4803750658991942E-35</v>
+      </c>
+      <c r="C76" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>62</v>
+      </c>
+      <c r="B77" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0346707449832798E-36</v>
+      </c>
+      <c r="C77" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>63</v>
+      </c>
+      <c r="B78" s="73">
+        <f t="shared" si="2"/>
+        <v>6.9343012891297561E-38</v>
+      </c>
+      <c r="C78" s="73">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>64</v>
+      </c>
+      <c r="B79" s="73">
+        <f t="shared" ref="B79:B110" si="3">_xlfn.BINOM.DIST($C$5+A79,$C$6,$C$7,FALSE)</f>
+        <v>4.4543254808645239E-39</v>
+      </c>
+      <c r="C79" s="73">
+        <f t="shared" ref="C79:C115" si="4">C78+B79</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>65</v>
+      </c>
+      <c r="B80" s="73">
+        <f t="shared" si="3"/>
+        <v>2.7411233728397261E-40</v>
+      </c>
+      <c r="C80" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>66</v>
+      </c>
+      <c r="B81" s="73">
+        <f t="shared" si="3"/>
+        <v>1.6151400345015282E-41</v>
+      </c>
+      <c r="C81" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>67</v>
+      </c>
+      <c r="B82" s="73">
+        <f t="shared" si="3"/>
+        <v>9.1069255676700303E-43</v>
+      </c>
+      <c r="C82" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>68</v>
+      </c>
+      <c r="B83" s="73">
+        <f t="shared" si="3"/>
+        <v>4.9105971198221842E-44</v>
+      </c>
+      <c r="C83" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>69</v>
+      </c>
+      <c r="B84" s="73">
+        <f t="shared" si="3"/>
+        <v>2.5304204160113902E-45</v>
+      </c>
+      <c r="C84" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>70</v>
+      </c>
+      <c r="B85" s="73">
+        <f t="shared" si="3"/>
+        <v>1.245127506291343E-46</v>
+      </c>
+      <c r="C85" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>71</v>
+      </c>
+      <c r="B86" s="73">
+        <f t="shared" si="3"/>
+        <v>5.8456690436213078E-48</v>
+      </c>
+      <c r="C86" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>72</v>
+      </c>
+      <c r="B87" s="73">
+        <f t="shared" si="3"/>
+        <v>2.6161173189045807E-49</v>
+      </c>
+      <c r="C87" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>73</v>
+      </c>
+      <c r="B88" s="73">
+        <f t="shared" si="3"/>
+        <v>1.114935843673196E-50</v>
+      </c>
+      <c r="C88" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>74</v>
+      </c>
+      <c r="B89" s="73">
+        <f t="shared" si="3"/>
+        <v>4.5200101770534302E-52</v>
+      </c>
+      <c r="C89" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>75</v>
+      </c>
+      <c r="B90" s="73">
+        <f t="shared" si="3"/>
+        <v>1.7410409570873E-53</v>
+      </c>
+      <c r="C90" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>76</v>
+      </c>
+      <c r="B91" s="73">
+        <f t="shared" si="3"/>
+        <v>6.3634537905236743E-55</v>
+      </c>
+      <c r="C91" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>77</v>
+      </c>
+      <c r="B92" s="73">
+        <f t="shared" si="3"/>
+        <v>2.2037935205276515E-56</v>
+      </c>
+      <c r="C92" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>78</v>
+      </c>
+      <c r="B93" s="73">
+        <f t="shared" si="3"/>
+        <v>7.2204061213869564E-58</v>
+      </c>
+      <c r="C93" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>79</v>
+      </c>
+      <c r="B94" s="73">
+        <f t="shared" si="3"/>
+        <v>2.2341622316527636E-59</v>
+      </c>
+      <c r="C94" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>80</v>
+      </c>
+      <c r="B95" s="73">
+        <f t="shared" si="3"/>
+        <v>6.5163065089875096E-61</v>
+      </c>
+      <c r="C95" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>81</v>
+      </c>
+      <c r="B96" s="73">
+        <f t="shared" si="3"/>
+        <v>1.7877384112448034E-62</v>
+      </c>
+      <c r="C96" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>82</v>
+      </c>
+      <c r="B97" s="73">
+        <f t="shared" si="3"/>
+        <v>4.6025785655353375E-64</v>
+      </c>
+      <c r="C97" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>83</v>
+      </c>
+      <c r="B98" s="73">
+        <f t="shared" si="3"/>
+        <v>1.1090550760326037E-65</v>
+      </c>
+      <c r="C98" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>84</v>
+      </c>
+      <c r="B99" s="73">
+        <f t="shared" si="3"/>
+        <v>2.4939069170045814E-67</v>
+      </c>
+      <c r="C99" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>85</v>
+      </c>
+      <c r="B100" s="73">
+        <f t="shared" si="3"/>
+        <v>5.2160144669377636E-69</v>
+      </c>
+      <c r="C100" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>86</v>
+      </c>
+      <c r="B101" s="73">
+        <f t="shared" si="3"/>
+        <v>1.010855516848429E-70</v>
+      </c>
+      <c r="C101" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>87</v>
+      </c>
+      <c r="B102" s="73">
+        <f t="shared" si="3"/>
+        <v>1.8074045001120615E-72</v>
+      </c>
+      <c r="C102" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>88</v>
+      </c>
+      <c r="B103" s="73">
+        <f t="shared" si="3"/>
+        <v>2.9666993057394377E-74</v>
+      </c>
+      <c r="C103" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>89</v>
+      </c>
+      <c r="B104" s="73">
+        <f t="shared" si="3"/>
+        <v>4.4444933419318628E-76</v>
+      </c>
+      <c r="C104" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>90</v>
+      </c>
+      <c r="B105" s="73">
+        <f t="shared" si="3"/>
+        <v>6.0357316989197273E-78</v>
+      </c>
+      <c r="C105" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>91</v>
+      </c>
+      <c r="B106" s="73">
+        <f t="shared" si="3"/>
+        <v>7.3696357740169999E-80</v>
+      </c>
+      <c r="C106" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>92</v>
+      </c>
+      <c r="B107" s="73">
+        <f t="shared" si="3"/>
+        <v>8.0104736674095456E-82</v>
+      </c>
+      <c r="C107" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>93</v>
+      </c>
+      <c r="B108" s="73">
+        <f t="shared" si="3"/>
+        <v>7.6563667072015817E-84</v>
+      </c>
+      <c r="C108" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>94</v>
+      </c>
+      <c r="B109" s="73">
+        <f t="shared" si="3"/>
+        <v>6.3350551950838622E-86</v>
+      </c>
+      <c r="C109" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>95</v>
+      </c>
+      <c r="B110" s="73">
+        <f t="shared" si="3"/>
+        <v>4.445652768479891E-88</v>
+      </c>
+      <c r="C110" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>96</v>
+      </c>
+      <c r="B111" s="73">
+        <f t="shared" ref="B111:B115" si="5">_xlfn.BINOM.DIST($C$5+A111,$C$6,$C$7,FALSE)</f>
+        <v>2.5727157224999704E-90</v>
+      </c>
+      <c r="C111" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>97</v>
+      </c>
+      <c r="B112" s="73">
+        <f t="shared" si="5"/>
+        <v>1.1787930000000177E-92</v>
+      </c>
+      <c r="C112" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>98</v>
+      </c>
+      <c r="B113" s="73">
+        <f t="shared" si="5"/>
+        <v>4.0094999999999102E-95</v>
+      </c>
+      <c r="C113" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>99</v>
+      </c>
+      <c r="B114" s="73">
+        <f t="shared" si="5"/>
+        <v>8.999999999999935E-98</v>
+      </c>
+      <c r="C114" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>100</v>
+      </c>
+      <c r="B115" s="73">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000174E-100</v>
+      </c>
+      <c r="C115" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="73"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F827AC-7BB9-443F-BC2C-6F40F7C40E33}">
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="74"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="80">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="80"/>
+      <c r="E7" s="78"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1">
+      <c r="C8" s="81"/>
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1">
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="83">
+        <f>C6</f>
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="75"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" thickBot="1">
+      <c r="B11" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="85">
+        <f>C6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="86"/>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="73">
+        <f t="shared" ref="B15:B46" si="0">_xlfn.POISSON.DIST($C$5+A15,$C$6,FALSE)</f>
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="C15" s="73">
+        <f t="shared" ref="C15:C78" si="1">C14+B15</f>
+        <v>8.75651076269652E-27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="73">
+        <f t="shared" si="0"/>
+        <v>5.2539064576179108E-25</v>
+      </c>
+      <c r="C16" s="73">
+        <f t="shared" si="1"/>
+        <v>5.3414715652448756E-25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="73">
+        <f t="shared" si="0"/>
+        <v>1.5761719372853651E-23</v>
+      </c>
+      <c r="C17" s="73">
+        <f t="shared" si="1"/>
+        <v>1.6295866529378139E-23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="73">
+        <f t="shared" si="0"/>
+        <v>3.152343874570744E-22</v>
+      </c>
+      <c r="C18" s="73">
+        <f t="shared" si="1"/>
+        <v>3.3153025398645255E-22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="73">
+        <f t="shared" si="0"/>
+        <v>4.728515811856133E-21</v>
+      </c>
+      <c r="C19" s="73">
+        <f t="shared" si="1"/>
+        <v>5.0600460658425852E-21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="73">
+        <f t="shared" si="0"/>
+        <v>5.6742189742273632E-20</v>
+      </c>
+      <c r="C20" s="73">
+        <f t="shared" si="1"/>
+        <v>6.1802235808116223E-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="73">
+        <f t="shared" si="0"/>
+        <v>5.6742189742273411E-19</v>
+      </c>
+      <c r="C21" s="73">
+        <f t="shared" si="1"/>
+        <v>6.2922413323085033E-19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="73">
+        <f t="shared" si="0"/>
+        <v>4.8636162636234339E-18</v>
+      </c>
+      <c r="C22" s="73">
+        <f t="shared" si="1"/>
+        <v>5.4928403968542843E-18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="73">
+        <f t="shared" si="0"/>
+        <v>3.6477121977175906E-17</v>
+      </c>
+      <c r="C23" s="73">
+        <f t="shared" si="1"/>
+        <v>4.1969962374030193E-17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" s="73">
+        <f t="shared" si="0"/>
+        <v>2.4318081318117187E-16</v>
+      </c>
+      <c r="C24" s="73">
+        <f t="shared" si="1"/>
+        <v>2.8515077555520205E-16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="73">
+        <f t="shared" si="0"/>
+        <v>1.459084879087027E-15</v>
+      </c>
+      <c r="C25" s="73">
+        <f t="shared" si="1"/>
+        <v>1.744235654642229E-15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="73">
+        <f t="shared" si="0"/>
+        <v>7.9586447950201824E-15</v>
+      </c>
+      <c r="C26" s="73">
+        <f t="shared" si="1"/>
+        <v>9.7028804496624112E-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="73">
+        <f t="shared" si="0"/>
+        <v>3.9793223975100729E-14</v>
+      </c>
+      <c r="C27" s="73">
+        <f t="shared" si="1"/>
+        <v>4.9496104424763137E-14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="73">
+        <f t="shared" si="0"/>
+        <v>1.8366103373123481E-13</v>
+      </c>
+      <c r="C28" s="73">
+        <f t="shared" si="1"/>
+        <v>2.3315713815599795E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="73">
+        <f t="shared" si="0"/>
+        <v>7.8711871599100546E-13</v>
+      </c>
+      <c r="C29" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0202758541470034E-12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="73">
+        <f t="shared" si="0"/>
+        <v>3.1484748639640174E-12</v>
+      </c>
+      <c r="C30" s="73">
+        <f t="shared" si="1"/>
+        <v>4.1687507181110205E-12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" s="73">
+        <f t="shared" si="0"/>
+        <v>1.1806780739865109E-11</v>
+      </c>
+      <c r="C31" s="73">
+        <f t="shared" si="1"/>
+        <v>1.5975531457976131E-11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" s="73">
+        <f t="shared" si="0"/>
+        <v>4.1670990846582851E-11</v>
+      </c>
+      <c r="C32" s="73">
+        <f t="shared" si="1"/>
+        <v>5.7646522304558982E-11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33" s="73">
+        <f t="shared" si="0"/>
+        <v>1.3890330282194243E-10</v>
+      </c>
+      <c r="C33" s="73">
+        <f t="shared" si="1"/>
+        <v>1.9654982512650141E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34" s="73">
+        <f t="shared" si="0"/>
+        <v>4.386420089113977E-10</v>
+      </c>
+      <c r="C34" s="73">
+        <f t="shared" si="1"/>
+        <v>6.3519183403789916E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="73">
+        <f t="shared" si="0"/>
+        <v>1.315926026734193E-9</v>
+      </c>
+      <c r="C35" s="73">
+        <f t="shared" si="1"/>
+        <v>1.9511178607720922E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36" s="73">
+        <f t="shared" si="0"/>
+        <v>3.7597886478119847E-9</v>
+      </c>
+      <c r="C36" s="73">
+        <f t="shared" si="1"/>
+        <v>5.7109065085840774E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0253969039487166E-8</v>
+      </c>
+      <c r="C37" s="73">
+        <f t="shared" si="1"/>
+        <v>1.5964875548071243E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" s="73">
+        <f t="shared" si="0"/>
+        <v>2.6749484450836144E-8</v>
+      </c>
+      <c r="C38" s="73">
+        <f t="shared" si="1"/>
+        <v>4.2714359998907384E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" s="73">
+        <f t="shared" si="0"/>
+        <v>6.6873711127090178E-8</v>
+      </c>
+      <c r="C39" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0958807112599756E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40" s="73">
+        <f t="shared" si="0"/>
+        <v>1.604969067050164E-7</v>
+      </c>
+      <c r="C40" s="73">
+        <f t="shared" si="1"/>
+        <v>2.7008497783101396E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>26</v>
+      </c>
+      <c r="B41" s="73">
+        <f t="shared" si="0"/>
+        <v>3.7037747701157785E-7</v>
+      </c>
+      <c r="C41" s="73">
+        <f t="shared" si="1"/>
+        <v>6.4046245484259176E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" s="73">
+        <f t="shared" si="0"/>
+        <v>8.2306106002572851E-7</v>
+      </c>
+      <c r="C42" s="73">
+        <f t="shared" si="1"/>
+        <v>1.4635235148683202E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>28</v>
+      </c>
+      <c r="B43" s="73">
+        <f t="shared" si="0"/>
+        <v>1.7637022714836967E-6</v>
+      </c>
+      <c r="C43" s="73">
+        <f t="shared" si="1"/>
+        <v>3.2272257863520171E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>29</v>
+      </c>
+      <c r="B44" s="73">
+        <f t="shared" si="0"/>
+        <v>3.649039182380066E-6</v>
+      </c>
+      <c r="C44" s="73">
+        <f t="shared" si="1"/>
+        <v>6.8762649687320835E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45" s="73">
+        <f t="shared" si="0"/>
+        <v>7.2980783647601396E-6</v>
+      </c>
+      <c r="C45" s="73">
+        <f t="shared" si="1"/>
+        <v>1.4174343333492223E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>31</v>
+      </c>
+      <c r="B46" s="73">
+        <f t="shared" si="0"/>
+        <v>1.4125312964051856E-5</v>
+      </c>
+      <c r="C46" s="73">
+        <f t="shared" si="1"/>
+        <v>2.8299656297544079E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47" s="73">
+        <f t="shared" ref="B47:B78" si="2">_xlfn.POISSON.DIST($C$5+A47,$C$6,FALSE)</f>
+        <v>2.6484961807597371E-5</v>
+      </c>
+      <c r="C47" s="73">
+        <f t="shared" si="1"/>
+        <v>5.4784618105141447E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>33</v>
+      </c>
+      <c r="B48" s="73">
+        <f t="shared" si="2"/>
+        <v>4.81544760138133E-5</v>
+      </c>
+      <c r="C48" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0293909411895475E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" s="73">
+        <f t="shared" si="2"/>
+        <v>8.497848708319989E-5</v>
+      </c>
+      <c r="C49" s="73">
+        <f t="shared" si="1"/>
+        <v>1.8791758120215464E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>35</v>
+      </c>
+      <c r="B50" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4567740642834194E-4</v>
+      </c>
+      <c r="C50" s="73">
+        <f t="shared" si="1"/>
+        <v>3.3359498763049658E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>36</v>
+      </c>
+      <c r="B51" s="73">
+        <f t="shared" si="2"/>
+        <v>2.4279567738057136E-4</v>
+      </c>
+      <c r="C51" s="73">
+        <f t="shared" si="1"/>
+        <v>5.7639066501106789E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>37</v>
+      </c>
+      <c r="B52" s="73">
+        <f t="shared" si="2"/>
+        <v>3.9372272007660137E-4</v>
+      </c>
+      <c r="C52" s="73">
+        <f t="shared" si="1"/>
+        <v>9.7011338508766931E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53" s="73">
+        <f t="shared" si="2"/>
+        <v>6.2166745275253122E-4</v>
+      </c>
+      <c r="C53" s="73">
+        <f t="shared" si="1"/>
+        <v>1.5917808378402005E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>39</v>
+      </c>
+      <c r="B54" s="73">
+        <f t="shared" si="2"/>
+        <v>9.5641146577312016E-4</v>
+      </c>
+      <c r="C54" s="73">
+        <f t="shared" si="1"/>
+        <v>2.5481923036133206E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55" s="73">
+        <f t="shared" si="2"/>
+        <v>1.4346171986596859E-3</v>
+      </c>
+      <c r="C55" s="73">
+        <f t="shared" si="1"/>
+        <v>3.9828095022730065E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" s="73">
+        <f t="shared" si="2"/>
+        <v>2.0994398029166124E-3</v>
+      </c>
+      <c r="C56" s="73">
+        <f t="shared" si="1"/>
+        <v>6.0822493051896189E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" s="73">
+        <f t="shared" si="2"/>
+        <v>2.9991997184523004E-3</v>
+      </c>
+      <c r="C57" s="73">
+        <f t="shared" si="1"/>
+        <v>9.0814490236419201E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>43</v>
+      </c>
+      <c r="B58" s="73">
+        <f t="shared" si="2"/>
+        <v>4.1849298397008804E-3</v>
+      </c>
+      <c r="C58" s="73">
+        <f t="shared" si="1"/>
+        <v>1.3266378863342801E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>44</v>
+      </c>
+      <c r="B59" s="73">
+        <f t="shared" si="2"/>
+        <v>5.7067225086830211E-3</v>
+      </c>
+      <c r="C59" s="73">
+        <f t="shared" si="1"/>
+        <v>1.8973101372025823E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60" s="73">
+        <f t="shared" si="2"/>
+        <v>7.6089633449106953E-3</v>
+      </c>
+      <c r="C60" s="73">
+        <f t="shared" si="1"/>
+        <v>2.658206471693652E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>46</v>
+      </c>
+      <c r="B61" s="73">
+        <f t="shared" si="2"/>
+        <v>9.924734797709606E-3</v>
+      </c>
+      <c r="C61" s="73">
+        <f t="shared" si="1"/>
+        <v>3.6506799514646124E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>47</v>
+      </c>
+      <c r="B62" s="73">
+        <f t="shared" si="2"/>
+        <v>1.2669874209842056E-2</v>
+      </c>
+      <c r="C62" s="73">
+        <f t="shared" si="1"/>
+        <v>4.9176673724488182E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>48</v>
+      </c>
+      <c r="B63" s="73">
+        <f t="shared" si="2"/>
+        <v>1.5837342762302566E-2</v>
+      </c>
+      <c r="C63" s="73">
+        <f t="shared" si="1"/>
+        <v>6.5014016486790754E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>49</v>
+      </c>
+      <c r="B64" s="73">
+        <f t="shared" si="2"/>
+        <v>1.9392664606901127E-2</v>
+      </c>
+      <c r="C64" s="73">
+        <f t="shared" si="1"/>
+        <v>8.4406681093691885E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>50</v>
+      </c>
+      <c r="B65" s="73">
+        <f t="shared" si="2"/>
+        <v>2.3271197528281277E-2</v>
+      </c>
+      <c r="C65" s="73">
+        <f t="shared" si="1"/>
+        <v>0.10767787862197316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>51</v>
+      </c>
+      <c r="B66" s="73">
+        <f t="shared" si="2"/>
+        <v>2.7377879445036855E-2</v>
+      </c>
+      <c r="C66" s="73">
+        <f t="shared" si="1"/>
+        <v>0.13505575806701001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>52</v>
+      </c>
+      <c r="B67" s="73">
+        <f t="shared" si="2"/>
+        <v>3.1589860898119444E-2</v>
+      </c>
+      <c r="C67" s="73">
+        <f t="shared" si="1"/>
+        <v>0.16664561896512944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>53</v>
+      </c>
+      <c r="B68" s="73">
+        <f t="shared" si="2"/>
+        <v>3.5762106677116358E-2</v>
+      </c>
+      <c r="C68" s="73">
+        <f t="shared" si="1"/>
+        <v>0.20240772564224579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>54</v>
+      </c>
+      <c r="B69" s="73">
+        <f t="shared" si="2"/>
+        <v>3.9735674085684798E-2</v>
+      </c>
+      <c r="C69" s="73">
+        <f t="shared" si="1"/>
+        <v>0.24214339972793059</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>55</v>
+      </c>
+      <c r="B70" s="73">
+        <f t="shared" si="2"/>
+        <v>4.3348008093474374E-2</v>
+      </c>
+      <c r="C70" s="73">
+        <f t="shared" si="1"/>
+        <v>0.28549140782140497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>56</v>
+      </c>
+      <c r="B71" s="73">
+        <f t="shared" si="2"/>
+        <v>4.6444294385865385E-2</v>
+      </c>
+      <c r="C71" s="73">
+        <f t="shared" si="1"/>
+        <v>0.33193570220727037</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>57</v>
+      </c>
+      <c r="B72" s="73">
+        <f t="shared" si="2"/>
+        <v>4.8888730932489861E-2</v>
+      </c>
+      <c r="C72" s="73">
+        <f t="shared" si="1"/>
+        <v>0.38082443313976022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>58</v>
+      </c>
+      <c r="B73" s="73">
+        <f t="shared" si="2"/>
+        <v>5.0574549240506743E-2</v>
+      </c>
+      <c r="C73" s="73">
+        <f t="shared" si="1"/>
+        <v>0.43139898238026697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>59</v>
+      </c>
+      <c r="B74" s="73">
+        <f t="shared" si="2"/>
+        <v>5.1431744990345848E-2</v>
+      </c>
+      <c r="C74" s="73">
+        <f t="shared" si="1"/>
+        <v>0.48283072737061283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="B75" s="73">
+        <f t="shared" si="2"/>
+        <v>5.1431744990345862E-2</v>
+      </c>
+      <c r="C75" s="73">
+        <f t="shared" si="1"/>
+        <v>0.5342624723609587</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>61</v>
+      </c>
+      <c r="B76" s="73">
+        <f t="shared" si="2"/>
+        <v>5.0588601629848386E-2</v>
+      </c>
+      <c r="C76" s="73">
+        <f t="shared" si="1"/>
+        <v>0.58485107399080705</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>62</v>
+      </c>
+      <c r="B77" s="73">
+        <f t="shared" si="2"/>
+        <v>4.8956711254691976E-2</v>
+      </c>
+      <c r="C77" s="73">
+        <f t="shared" si="1"/>
+        <v>0.63380778524549908</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>63</v>
+      </c>
+      <c r="B78" s="73">
+        <f t="shared" si="2"/>
+        <v>4.6625439290182834E-2</v>
+      </c>
+      <c r="C78" s="73">
+        <f t="shared" si="1"/>
+        <v>0.68043322453568189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>64</v>
+      </c>
+      <c r="B79" s="73">
+        <f t="shared" ref="B79:B110" si="3">_xlfn.POISSON.DIST($C$5+A79,$C$6,FALSE)</f>
+        <v>4.3711349334546436E-2</v>
+      </c>
+      <c r="C79" s="73">
+        <f t="shared" ref="C79:C115" si="4">C78+B79</f>
+        <v>0.72414457387022835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>65</v>
+      </c>
+      <c r="B80" s="73">
+        <f t="shared" si="3"/>
+        <v>4.0348937847273621E-2</v>
+      </c>
+      <c r="C80" s="73">
+        <f t="shared" si="4"/>
+        <v>0.76449351171750202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>66</v>
+      </c>
+      <c r="B81" s="73">
+        <f t="shared" si="3"/>
+        <v>3.6680852588430575E-2</v>
+      </c>
+      <c r="C81" s="73">
+        <f t="shared" si="4"/>
+        <v>0.80117436430593258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>67</v>
+      </c>
+      <c r="B82" s="73">
+        <f t="shared" si="3"/>
+        <v>3.2848524706057224E-2</v>
+      </c>
+      <c r="C82" s="73">
+        <f t="shared" si="4"/>
+        <v>0.83402288901198984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>68</v>
+      </c>
+      <c r="B83" s="73">
+        <f t="shared" si="3"/>
+        <v>2.8983992387697527E-2</v>
+      </c>
+      <c r="C83" s="73">
+        <f t="shared" si="4"/>
+        <v>0.8630068813996874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>69</v>
+      </c>
+      <c r="B84" s="73">
+        <f t="shared" si="3"/>
+        <v>2.5203471641476152E-2</v>
+      </c>
+      <c r="C84" s="73">
+        <f t="shared" si="4"/>
+        <v>0.88821035304116358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>70</v>
+      </c>
+      <c r="B85" s="73">
+        <f t="shared" si="3"/>
+        <v>2.1602975692693836E-2</v>
+      </c>
+      <c r="C85" s="73">
+        <f t="shared" si="4"/>
+        <v>0.90981332873385745</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>71</v>
+      </c>
+      <c r="B86" s="73">
+        <f t="shared" si="3"/>
+        <v>1.8256035796642658E-2</v>
+      </c>
+      <c r="C86" s="73">
+        <f t="shared" si="4"/>
+        <v>0.92806936453050015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>72</v>
+      </c>
+      <c r="B87" s="73">
+        <f t="shared" si="3"/>
+        <v>1.5213363163868902E-2</v>
+      </c>
+      <c r="C87" s="73">
+        <f t="shared" si="4"/>
+        <v>0.94328272769436905</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>73</v>
+      </c>
+      <c r="B88" s="73">
+        <f t="shared" si="3"/>
+        <v>1.2504134107289504E-2</v>
+      </c>
+      <c r="C88" s="73">
+        <f t="shared" si="4"/>
+        <v>0.9557868618016585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>74</v>
+      </c>
+      <c r="B89" s="73">
+        <f t="shared" si="3"/>
+        <v>1.0138487114018515E-2</v>
+      </c>
+      <c r="C89" s="73">
+        <f t="shared" si="4"/>
+        <v>0.96592534891567705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>75</v>
+      </c>
+      <c r="B90" s="73">
+        <f t="shared" si="3"/>
+        <v>8.110789691214813E-3</v>
+      </c>
+      <c r="C90" s="73">
+        <f t="shared" si="4"/>
+        <v>0.97403613860689187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>76</v>
+      </c>
+      <c r="B91" s="73">
+        <f t="shared" si="3"/>
+        <v>6.403255019380107E-3</v>
+      </c>
+      <c r="C91" s="73">
+        <f t="shared" si="4"/>
+        <v>0.98043939362627197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>77</v>
+      </c>
+      <c r="B92" s="73">
+        <f t="shared" si="3"/>
+        <v>4.9895493657507433E-3</v>
+      </c>
+      <c r="C92" s="73">
+        <f t="shared" si="4"/>
+        <v>0.98542894299202266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>78</v>
+      </c>
+      <c r="B93" s="73">
+        <f t="shared" si="3"/>
+        <v>3.8381148967313295E-3</v>
+      </c>
+      <c r="C93" s="73">
+        <f t="shared" si="4"/>
+        <v>0.98926705788875402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>79</v>
+      </c>
+      <c r="B94" s="73">
+        <f t="shared" si="3"/>
+        <v>2.9150239722010203E-3</v>
+      </c>
+      <c r="C94" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99218208186095502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>80</v>
+      </c>
+      <c r="B95" s="73">
+        <f t="shared" si="3"/>
+        <v>2.1862679791507631E-3</v>
+      </c>
+      <c r="C95" s="73">
+        <f t="shared" si="4"/>
+        <v>0.9943683498401058</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>81</v>
+      </c>
+      <c r="B96" s="73">
+        <f t="shared" si="3"/>
+        <v>1.6194577623338978E-3</v>
+      </c>
+      <c r="C96" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99598780760243966</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>82</v>
+      </c>
+      <c r="B97" s="73">
+        <f t="shared" si="3"/>
+        <v>1.1849690943906577E-3</v>
+      </c>
+      <c r="C97" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99717277669683035</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>83</v>
+      </c>
+      <c r="B98" s="73">
+        <f t="shared" si="3"/>
+        <v>8.5660416461975236E-4</v>
+      </c>
+      <c r="C98" s="73">
+        <f t="shared" si="4"/>
+        <v>0.9980293808614501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>84</v>
+      </c>
+      <c r="B99" s="73">
+        <f t="shared" si="3"/>
+        <v>6.1186011758553808E-4</v>
+      </c>
+      <c r="C99" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99864124097903562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>85</v>
+      </c>
+      <c r="B100" s="73">
+        <f t="shared" si="3"/>
+        <v>4.3190125947214364E-4</v>
+      </c>
+      <c r="C100" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99907314223850774</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>86</v>
+      </c>
+      <c r="B101" s="73">
+        <f t="shared" si="3"/>
+        <v>3.0132646009684488E-4</v>
+      </c>
+      <c r="C101" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99937446869860458</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>87</v>
+      </c>
+      <c r="B102" s="73">
+        <f t="shared" si="3"/>
+        <v>2.0781135179092752E-4</v>
+      </c>
+      <c r="C102" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99958228005039551</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>88</v>
+      </c>
+      <c r="B103" s="73">
+        <f t="shared" si="3"/>
+        <v>1.4168955803926846E-4</v>
+      </c>
+      <c r="C103" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99972396960843479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>89</v>
+      </c>
+      <c r="B104" s="73">
+        <f t="shared" si="3"/>
+        <v>9.5521050363551717E-5</v>
+      </c>
+      <c r="C104" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99981949065879838</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>90</v>
+      </c>
+      <c r="B105" s="73">
+        <f t="shared" si="3"/>
+        <v>6.3680700242368078E-5</v>
+      </c>
+      <c r="C105" s="73">
+        <f t="shared" si="4"/>
+        <v>0.9998831713590407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>91</v>
+      </c>
+      <c r="B106" s="73">
+        <f t="shared" si="3"/>
+        <v>4.1987274885077858E-5</v>
+      </c>
+      <c r="C106" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99992515863392573</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>92</v>
+      </c>
+      <c r="B107" s="73">
+        <f t="shared" si="3"/>
+        <v>2.7383005359833276E-5</v>
+      </c>
+      <c r="C107" s="73">
+        <f t="shared" si="4"/>
+        <v>0.9999525416392856</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>93</v>
+      </c>
+      <c r="B108" s="73">
+        <f t="shared" si="3"/>
+        <v>1.7666455070860094E-5</v>
+      </c>
+      <c r="C108" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99997020809435644</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>94</v>
+      </c>
+      <c r="B109" s="73">
+        <f t="shared" si="3"/>
+        <v>1.1276460683527758E-5</v>
+      </c>
+      <c r="C109" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99998148455503999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>95</v>
+      </c>
+      <c r="B110" s="73">
+        <f t="shared" si="3"/>
+        <v>7.1219751685438776E-6</v>
+      </c>
+      <c r="C110" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99998860653020849</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>96</v>
+      </c>
+      <c r="B111" s="73">
+        <f t="shared" ref="B111:B142" si="5">_xlfn.POISSON.DIST($C$5+A111,$C$6,FALSE)</f>
+        <v>4.4512344803398851E-6</v>
+      </c>
+      <c r="C111" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999305776468883</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>97</v>
+      </c>
+      <c r="B112" s="73">
+        <f t="shared" si="5"/>
+        <v>2.7533409156741534E-6</v>
+      </c>
+      <c r="C112" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999581110560454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>98</v>
+      </c>
+      <c r="B113" s="73">
+        <f t="shared" si="5"/>
+        <v>1.6857189279637756E-6</v>
+      </c>
+      <c r="C113" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999749682453254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>99</v>
+      </c>
+      <c r="B114" s="73">
+        <f t="shared" si="5"/>
+        <v>1.0216478351295726E-6</v>
+      </c>
+      <c r="C114" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999851847236765</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>100</v>
+      </c>
+      <c r="B115" s="73">
+        <f t="shared" si="5"/>
+        <v>6.1298870107773643E-7</v>
+      </c>
+      <c r="C115" s="73">
+        <f t="shared" si="4"/>
+        <v>0.99999913146106878</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="73"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C77803-7FD3-4773-BEB1-B74A95DF10E5}">
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -10997,7 +19478,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="79">
         <v>0</v>
@@ -11092,7 +19573,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="73">
-        <f t="shared" ref="B15:B46" si="0">_xlfn.BINOM.DIST($C$5+A15,$C$6,$C$7,FALSE)</f>
+        <f t="shared" ref="B15:B78" si="0">_xlfn.BINOM.DIST($C$5+A15,$C$6,$C$7,FALSE)</f>
         <v>2.6561398887587476E-5</v>
       </c>
       <c r="C15" s="73">
@@ -11508,7 +19989,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="73">
-        <f t="shared" ref="B47:B78" si="2">_xlfn.BINOM.DIST($C$5+A47,$C$6,$C$7,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.1062789391958223E-9</v>
       </c>
       <c r="C47" s="73">
@@ -11521,7 +20002,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.5328945409197227E-10</v>
       </c>
       <c r="C48" s="73">
@@ -11534,7 +20015,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.545880203974561E-11</v>
       </c>
       <c r="C49" s="73">
@@ -11547,7 +20028,7 @@
         <v>35</v>
       </c>
       <c r="B50" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.1619939474994299E-11</v>
       </c>
       <c r="C50" s="73">
@@ -11560,7 +20041,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.3311606971439327E-12</v>
       </c>
       <c r="C51" s="73">
@@ -11573,7 +20054,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.4803088473636733E-13</v>
       </c>
       <c r="C52" s="73">
@@ -11586,7 +20067,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8.2532005083015306E-14</v>
       </c>
       <c r="C53" s="73">
@@ -11599,7 +20080,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.4578302892156667E-14</v>
       </c>
       <c r="C54" s="73">
@@ -11612,7 +20093,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.4702124345043022E-15</v>
       </c>
       <c r="C55" s="73">
@@ -11625,7 +20106,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.0166055845598617E-16</v>
       </c>
       <c r="C56" s="73">
@@ -11638,7 +20119,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.2693050129372666E-17</v>
       </c>
       <c r="C57" s="73">
@@ -11651,7 +20132,7 @@
         <v>43</v>
       </c>
       <c r="B58" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.3958576421283492E-18</v>
       </c>
       <c r="C58" s="73">
@@ -11664,7 +20145,7 @@
         <v>44</v>
       </c>
       <c r="B59" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3524340545487657E-18</v>
       </c>
       <c r="C59" s="73">
@@ -11677,7 +20158,7 @@
         <v>45</v>
       </c>
       <c r="B60" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.8700322729563154E-19</v>
       </c>
       <c r="C60" s="73">
@@ -11690,7 +20171,7 @@
         <v>46</v>
       </c>
       <c r="B61" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.4843423916086421E-20</v>
       </c>
       <c r="C61" s="73">
@@ -11703,7 +20184,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.1715009254578644E-21</v>
       </c>
       <c r="C62" s="73">
@@ -11716,7 +20197,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.8909617835478817E-22</v>
       </c>
       <c r="C63" s="73">
@@ -11729,7 +20210,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.587982148401027E-23</v>
       </c>
       <c r="C64" s="73">
@@ -11742,7 +20223,7 @@
         <v>50</v>
       </c>
       <c r="B65" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.1997131015211782E-24</v>
       </c>
       <c r="C65" s="73">
@@ -11755,7 +20236,7 @@
         <v>51</v>
       </c>
       <c r="B66" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.6641754918532132E-25</v>
       </c>
       <c r="C66" s="73">
@@ -11768,7 +20249,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.9304401517266333E-26</v>
       </c>
       <c r="C67" s="73">
@@ -11781,7 +20262,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.9677385174607181E-27</v>
       </c>
       <c r="C68" s="73">
@@ -11794,7 +20275,7 @@
         <v>54</v>
       </c>
       <c r="B69" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.7712697596842454E-28</v>
       </c>
       <c r="C69" s="73">
@@ -11807,7 +20288,7 @@
         <v>55</v>
       </c>
       <c r="B70" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.363200180716623E-29</v>
       </c>
       <c r="C70" s="73">
@@ -11820,7 +20301,7 @@
         <v>56</v>
       </c>
       <c r="B71" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.7885715899256424E-30</v>
       </c>
       <c r="C71" s="73">
@@ -11833,7 +20314,7 @@
         <v>57</v>
       </c>
       <c r="B72" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.1071569192343688E-31</v>
       </c>
       <c r="C72" s="73">
@@ -11846,7 +20327,7 @@
         <v>58</v>
       </c>
       <c r="B73" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.3832901825110975E-32</v>
       </c>
       <c r="C73" s="73">
@@ -11859,7 +20340,7 @@
         <v>59</v>
       </c>
       <c r="B74" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.6760487319297037E-33</v>
       </c>
       <c r="C74" s="73">
@@ -11872,7 +20353,7 @@
         <v>60</v>
       </c>
       <c r="B75" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.0318147779466289E-34</v>
       </c>
       <c r="C75" s="73">
@@ -11885,7 +20366,7 @@
         <v>61</v>
       </c>
       <c r="B76" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.4803750658991942E-35</v>
       </c>
       <c r="C76" s="73">
@@ -11898,7 +20379,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.0346707449832798E-36</v>
       </c>
       <c r="C77" s="73">
@@ -11911,7 +20392,7 @@
         <v>63</v>
       </c>
       <c r="B78" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.9343012891297561E-38</v>
       </c>
       <c r="C78" s="73">
@@ -11924,11 +20405,11 @@
         <v>64</v>
       </c>
       <c r="B79" s="73">
-        <f t="shared" ref="B79:B110" si="3">_xlfn.BINOM.DIST($C$5+A79,$C$6,$C$7,FALSE)</f>
+        <f t="shared" ref="B79:B115" si="2">_xlfn.BINOM.DIST($C$5+A79,$C$6,$C$7,FALSE)</f>
         <v>4.4543254808645239E-39</v>
       </c>
       <c r="C79" s="73">
-        <f t="shared" ref="C79:C115" si="4">C78+B79</f>
+        <f t="shared" ref="C79:C115" si="3">C78+B79</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -11937,11 +20418,11 @@
         <v>65</v>
       </c>
       <c r="B80" s="73">
+        <f t="shared" si="2"/>
+        <v>2.7411233728397261E-40</v>
+      </c>
+      <c r="C80" s="73">
         <f t="shared" si="3"/>
-        <v>2.7411233728397261E-40</v>
-      </c>
-      <c r="C80" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -11950,11 +20431,11 @@
         <v>66</v>
       </c>
       <c r="B81" s="73">
+        <f t="shared" si="2"/>
+        <v>1.6151400345015282E-41</v>
+      </c>
+      <c r="C81" s="73">
         <f t="shared" si="3"/>
-        <v>1.6151400345015282E-41</v>
-      </c>
-      <c r="C81" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -11963,11 +20444,11 @@
         <v>67</v>
       </c>
       <c r="B82" s="73">
+        <f t="shared" si="2"/>
+        <v>9.1069255676700303E-43</v>
+      </c>
+      <c r="C82" s="73">
         <f t="shared" si="3"/>
-        <v>9.1069255676700303E-43</v>
-      </c>
-      <c r="C82" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -11976,11 +20457,11 @@
         <v>68</v>
       </c>
       <c r="B83" s="73">
+        <f t="shared" si="2"/>
+        <v>4.9105971198221842E-44</v>
+      </c>
+      <c r="C83" s="73">
         <f t="shared" si="3"/>
-        <v>4.9105971198221842E-44</v>
-      </c>
-      <c r="C83" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -11989,11 +20470,11 @@
         <v>69</v>
       </c>
       <c r="B84" s="73">
+        <f t="shared" si="2"/>
+        <v>2.5304204160113902E-45</v>
+      </c>
+      <c r="C84" s="73">
         <f t="shared" si="3"/>
-        <v>2.5304204160113902E-45</v>
-      </c>
-      <c r="C84" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12002,11 +20483,11 @@
         <v>70</v>
       </c>
       <c r="B85" s="73">
+        <f t="shared" si="2"/>
+        <v>1.245127506291343E-46</v>
+      </c>
+      <c r="C85" s="73">
         <f t="shared" si="3"/>
-        <v>1.245127506291343E-46</v>
-      </c>
-      <c r="C85" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12015,11 +20496,11 @@
         <v>71</v>
       </c>
       <c r="B86" s="73">
+        <f t="shared" si="2"/>
+        <v>5.8456690436213078E-48</v>
+      </c>
+      <c r="C86" s="73">
         <f t="shared" si="3"/>
-        <v>5.8456690436213078E-48</v>
-      </c>
-      <c r="C86" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12028,11 +20509,11 @@
         <v>72</v>
       </c>
       <c r="B87" s="73">
+        <f t="shared" si="2"/>
+        <v>2.6161173189045807E-49</v>
+      </c>
+      <c r="C87" s="73">
         <f t="shared" si="3"/>
-        <v>2.6161173189045807E-49</v>
-      </c>
-      <c r="C87" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12041,11 +20522,11 @@
         <v>73</v>
       </c>
       <c r="B88" s="73">
+        <f t="shared" si="2"/>
+        <v>1.114935843673196E-50</v>
+      </c>
+      <c r="C88" s="73">
         <f t="shared" si="3"/>
-        <v>1.114935843673196E-50</v>
-      </c>
-      <c r="C88" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12054,11 +20535,11 @@
         <v>74</v>
       </c>
       <c r="B89" s="73">
+        <f t="shared" si="2"/>
+        <v>4.5200101770534302E-52</v>
+      </c>
+      <c r="C89" s="73">
         <f t="shared" si="3"/>
-        <v>4.5200101770534302E-52</v>
-      </c>
-      <c r="C89" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12067,11 +20548,11 @@
         <v>75</v>
       </c>
       <c r="B90" s="73">
+        <f t="shared" si="2"/>
+        <v>1.7410409570873E-53</v>
+      </c>
+      <c r="C90" s="73">
         <f t="shared" si="3"/>
-        <v>1.7410409570873E-53</v>
-      </c>
-      <c r="C90" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12080,11 +20561,11 @@
         <v>76</v>
       </c>
       <c r="B91" s="73">
+        <f t="shared" si="2"/>
+        <v>6.3634537905236743E-55</v>
+      </c>
+      <c r="C91" s="73">
         <f t="shared" si="3"/>
-        <v>6.3634537905236743E-55</v>
-      </c>
-      <c r="C91" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12093,11 +20574,11 @@
         <v>77</v>
       </c>
       <c r="B92" s="73">
+        <f t="shared" si="2"/>
+        <v>2.2037935205276515E-56</v>
+      </c>
+      <c r="C92" s="73">
         <f t="shared" si="3"/>
-        <v>2.2037935205276515E-56</v>
-      </c>
-      <c r="C92" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12106,11 +20587,11 @@
         <v>78</v>
       </c>
       <c r="B93" s="73">
+        <f t="shared" si="2"/>
+        <v>7.2204061213869564E-58</v>
+      </c>
+      <c r="C93" s="73">
         <f t="shared" si="3"/>
-        <v>7.2204061213869564E-58</v>
-      </c>
-      <c r="C93" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12119,11 +20600,11 @@
         <v>79</v>
       </c>
       <c r="B94" s="73">
+        <f t="shared" si="2"/>
+        <v>2.2341622316527636E-59</v>
+      </c>
+      <c r="C94" s="73">
         <f t="shared" si="3"/>
-        <v>2.2341622316527636E-59</v>
-      </c>
-      <c r="C94" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12132,11 +20613,11 @@
         <v>80</v>
       </c>
       <c r="B95" s="73">
+        <f t="shared" si="2"/>
+        <v>6.5163065089875096E-61</v>
+      </c>
+      <c r="C95" s="73">
         <f t="shared" si="3"/>
-        <v>6.5163065089875096E-61</v>
-      </c>
-      <c r="C95" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12145,11 +20626,11 @@
         <v>81</v>
       </c>
       <c r="B96" s="73">
+        <f t="shared" si="2"/>
+        <v>1.7877384112448034E-62</v>
+      </c>
+      <c r="C96" s="73">
         <f t="shared" si="3"/>
-        <v>1.7877384112448034E-62</v>
-      </c>
-      <c r="C96" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12158,11 +20639,11 @@
         <v>82</v>
       </c>
       <c r="B97" s="73">
+        <f t="shared" si="2"/>
+        <v>4.6025785655353375E-64</v>
+      </c>
+      <c r="C97" s="73">
         <f t="shared" si="3"/>
-        <v>4.6025785655353375E-64</v>
-      </c>
-      <c r="C97" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12171,11 +20652,11 @@
         <v>83</v>
       </c>
       <c r="B98" s="73">
+        <f t="shared" si="2"/>
+        <v>1.1090550760326037E-65</v>
+      </c>
+      <c r="C98" s="73">
         <f t="shared" si="3"/>
-        <v>1.1090550760326037E-65</v>
-      </c>
-      <c r="C98" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12184,11 +20665,11 @@
         <v>84</v>
       </c>
       <c r="B99" s="73">
+        <f t="shared" si="2"/>
+        <v>2.4939069170045814E-67</v>
+      </c>
+      <c r="C99" s="73">
         <f t="shared" si="3"/>
-        <v>2.4939069170045814E-67</v>
-      </c>
-      <c r="C99" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12197,11 +20678,11 @@
         <v>85</v>
       </c>
       <c r="B100" s="73">
+        <f t="shared" si="2"/>
+        <v>5.2160144669377636E-69</v>
+      </c>
+      <c r="C100" s="73">
         <f t="shared" si="3"/>
-        <v>5.2160144669377636E-69</v>
-      </c>
-      <c r="C100" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12210,11 +20691,11 @@
         <v>86</v>
       </c>
       <c r="B101" s="73">
+        <f t="shared" si="2"/>
+        <v>1.010855516848429E-70</v>
+      </c>
+      <c r="C101" s="73">
         <f t="shared" si="3"/>
-        <v>1.010855516848429E-70</v>
-      </c>
-      <c r="C101" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12223,11 +20704,11 @@
         <v>87</v>
       </c>
       <c r="B102" s="73">
+        <f t="shared" si="2"/>
+        <v>1.8074045001120615E-72</v>
+      </c>
+      <c r="C102" s="73">
         <f t="shared" si="3"/>
-        <v>1.8074045001120615E-72</v>
-      </c>
-      <c r="C102" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12236,11 +20717,11 @@
         <v>88</v>
       </c>
       <c r="B103" s="73">
+        <f t="shared" si="2"/>
+        <v>2.9666993057394377E-74</v>
+      </c>
+      <c r="C103" s="73">
         <f t="shared" si="3"/>
-        <v>2.9666993057394377E-74</v>
-      </c>
-      <c r="C103" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12249,11 +20730,11 @@
         <v>89</v>
       </c>
       <c r="B104" s="73">
+        <f t="shared" si="2"/>
+        <v>4.4444933419318628E-76</v>
+      </c>
+      <c r="C104" s="73">
         <f t="shared" si="3"/>
-        <v>4.4444933419318628E-76</v>
-      </c>
-      <c r="C104" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12262,11 +20743,11 @@
         <v>90</v>
       </c>
       <c r="B105" s="73">
+        <f t="shared" si="2"/>
+        <v>6.0357316989197273E-78</v>
+      </c>
+      <c r="C105" s="73">
         <f t="shared" si="3"/>
-        <v>6.0357316989197273E-78</v>
-      </c>
-      <c r="C105" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12275,11 +20756,11 @@
         <v>91</v>
       </c>
       <c r="B106" s="73">
+        <f t="shared" si="2"/>
+        <v>7.3696357740169999E-80</v>
+      </c>
+      <c r="C106" s="73">
         <f t="shared" si="3"/>
-        <v>7.3696357740169999E-80</v>
-      </c>
-      <c r="C106" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12288,11 +20769,11 @@
         <v>92</v>
       </c>
       <c r="B107" s="73">
+        <f t="shared" si="2"/>
+        <v>8.0104736674095456E-82</v>
+      </c>
+      <c r="C107" s="73">
         <f t="shared" si="3"/>
-        <v>8.0104736674095456E-82</v>
-      </c>
-      <c r="C107" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12301,11 +20782,11 @@
         <v>93</v>
       </c>
       <c r="B108" s="73">
+        <f t="shared" si="2"/>
+        <v>7.6563667072015817E-84</v>
+      </c>
+      <c r="C108" s="73">
         <f t="shared" si="3"/>
-        <v>7.6563667072015817E-84</v>
-      </c>
-      <c r="C108" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12314,11 +20795,11 @@
         <v>94</v>
       </c>
       <c r="B109" s="73">
+        <f t="shared" si="2"/>
+        <v>6.3350551950838622E-86</v>
+      </c>
+      <c r="C109" s="73">
         <f t="shared" si="3"/>
-        <v>6.3350551950838622E-86</v>
-      </c>
-      <c r="C109" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12327,11 +20808,11 @@
         <v>95</v>
       </c>
       <c r="B110" s="73">
+        <f t="shared" si="2"/>
+        <v>4.445652768479891E-88</v>
+      </c>
+      <c r="C110" s="73">
         <f t="shared" si="3"/>
-        <v>4.445652768479891E-88</v>
-      </c>
-      <c r="C110" s="73">
-        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12340,11 +20821,11 @@
         <v>96</v>
       </c>
       <c r="B111" s="73">
-        <f t="shared" ref="B111:B115" si="5">_xlfn.BINOM.DIST($C$5+A111,$C$6,$C$7,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.5727157224999704E-90</v>
       </c>
       <c r="C111" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12353,11 +20834,11 @@
         <v>97</v>
       </c>
       <c r="B112" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.1787930000000177E-92</v>
       </c>
       <c r="C112" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12366,11 +20847,11 @@
         <v>98</v>
       </c>
       <c r="B113" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4.0094999999999102E-95</v>
       </c>
       <c r="C113" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12379,11 +20860,11 @@
         <v>99</v>
       </c>
       <c r="B114" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.999999999999935E-98</v>
       </c>
       <c r="C114" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -12392,11 +20873,11 @@
         <v>100</v>
       </c>
       <c r="B115" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000174E-100</v>
       </c>
       <c r="C115" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
